--- a/derivatives/parametric_volatility_example.xlsx
+++ b/derivatives/parametric_volatility_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABak\latex\derivatives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0DB76-8713-400D-8B7E-1426D756BA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D0D965-A160-4369-87F5-55B4E3DF3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{31829330-7045-44DE-930E-36EDCF213539}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="67">
   <si>
     <t>EDNT</t>
   </si>
@@ -232,9 +232,6 @@
     <t>0 otherwise</t>
   </si>
   <si>
-    <t>f=s(1+u)/(1+e)</t>
-  </si>
-  <si>
     <t>EDNT PV, $</t>
   </si>
   <si>
@@ -249,9 +246,9 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -364,18 +361,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -383,25 +370,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +568,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A65C0F86-74D8-42BE-BB8A-E5E667DB55DB}" type="CELLRANGE">
+                    <a:fld id="{B961AC22-363C-467C-AE45-509D99EFD9EC}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +602,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6C6C67A-01B2-487A-9110-E216AB28A3E0}" type="CELLRANGE">
+                    <a:fld id="{7B83A2ED-5E95-4DE4-AEBE-98D1148DAA09}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -646,7 +636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C63E4AC9-35B5-47AB-8DE5-313E34D5D9A7}" type="CELLRANGE">
+                    <a:fld id="{712D3E36-D369-4921-AC5C-CDC4C5BDDC01}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -680,7 +670,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{432E9379-435B-4EAB-B6C9-7B3486F8376A}" type="CELLRANGE">
+                    <a:fld id="{84603F6C-DE6D-4045-B442-2B8ED27F4373}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2066,7 +2056,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDF8F16D-83AB-4351-8A1B-0B2D2324A36E}" type="CELLRANGE">
+                    <a:fld id="{D135AB8B-40F9-4BE4-B3CC-167F697063C8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2100,7 +2090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52F40A3D-DD2C-4D55-B5E8-1B138D23F7A0}" type="CELLRANGE">
+                    <a:fld id="{A0FE8D8F-BBB5-4DEC-8BB5-2D8E0D89DE51}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2134,7 +2124,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD33A12E-CA03-4E10-BB02-98094E1E1F21}" type="CELLRANGE">
+                    <a:fld id="{345B4FAC-4359-4829-A30D-A81AAD14435A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2168,7 +2158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2AD165F-F927-4C26-916A-01AA60A975A2}" type="CELLRANGE">
+                    <a:fld id="{A8285738-BDCB-4C85-9CEA-3F948BB4A4FB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2202,7 +2192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5A3681C-7F96-45F3-B505-C02DED6F9BF7}" type="CELLRANGE">
+                    <a:fld id="{38D57242-52AA-420E-BBA4-527391CF2FAA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6496,7 +6486,7 @@
   <dimension ref="A1:AB509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G25" sqref="G25:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6510,16 +6500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="35">
+      <c r="B1" s="25">
         <v>1.07</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="30"/>
       <c r="S1" t="s">
         <v>41</v>
       </c>
@@ -6531,16 +6521,16 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="22">
         <v>0.25</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="30">
+      <c r="E2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="21">
         <v>1000000</v>
       </c>
       <c r="S2">
@@ -6556,16 +6546,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="20">
         <v>0.05</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="22">
         <v>1.05</v>
       </c>
       <c r="S3">
@@ -6581,16 +6571,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="20">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="28">
         <v>1.1000000000000001</v>
       </c>
       <c r="S4">
@@ -6606,17 +6596,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="26">
         <f>B1 * EXP((B3 - B4)*B2)</f>
         <v>1.07402003285062</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="16"/>
       <c r="S5">
         <v>75</v>
       </c>
@@ -6631,10 +6620,9 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="16"/>
       <c r="S6">
         <v>90</v>
       </c>
@@ -6648,39 +6636,38 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="24">
         <f>F42</f>
         <v>519180.54284558818</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="19">
         <f>F71</f>
         <v>512708.12349902373</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="19">
         <f>(B9 - B$8) * 0.01 / $F$12</f>
         <v>-64724.193465644486</v>
       </c>
@@ -6710,14 +6697,14 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="19">
         <f>F100</f>
         <v>519452.28613511974</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="19">
         <f>(B10 - B$8) * 0.01 / $F$12</f>
         <v>2717.4328953155782</v>
       </c>
@@ -6728,13 +6715,13 @@
         <v>1</v>
       </c>
       <c r="U10" s="3">
-        <f>$E$29 + $E$30 * LN(T10 / $B$5) + $E$31 * (LN(T10 / $B$5))^2</f>
+        <f t="shared" ref="U10:U34" si="0">$E$29 + $E$30 * LN(T10 / $B$5) + $E$31 * (LN(T10 / $B$5))^2</f>
         <v>8.2235891772295691E-2</v>
       </c>
       <c r="X10">
         <v>1E-3</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="23">
         <f>$T$10</f>
         <v>1</v>
       </c>
@@ -6744,43 +6731,43 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="19">
         <f>F129</f>
         <v>512382.6630698567</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="19">
         <f>(B11 - B$8) * 0.01 / $F$12</f>
         <v>-67978.797757314751</v>
       </c>
       <c r="T11" s="5">
-        <f>T10+$S$10</f>
+        <f t="shared" ref="T11:T34" si="1">T10+$S$10</f>
         <v>1.01</v>
       </c>
       <c r="U11" s="3">
-        <f>$E$29 + $E$30 * LN(T11 / $B$5) + $E$31 * (LN(T11 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.9283569710609417E-2</v>
       </c>
-      <c r="Y11" s="32">
-        <f>Y10+$X$10</f>
+      <c r="Y11" s="23">
+        <f t="shared" ref="Y11:Y74" si="2">Y10+$X$10</f>
         <v>1.0009999999999999</v>
       </c>
       <c r="Z11" s="7">
-        <f t="shared" ref="Z11:Z74" si="0">IF(AND(Y11&gt;=$F$3, Y11&lt;=$F$4), $F$2, 0)</f>
+        <f t="shared" ref="Z11:Z74" si="3">IF(AND(Y11&gt;=$F$3, Y11&lt;=$F$4), $F$2, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="19">
         <f>O100</f>
         <v>519230.00845111348</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="19">
         <f>(B12 - B$8) * 0.01 / $F$12</f>
         <v>494.65605525299907</v>
       </c>
@@ -6791,31 +6778,31 @@
         <v>1E-3</v>
       </c>
       <c r="T12" s="5">
-        <f>T11+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
       <c r="U12" s="3">
-        <f>$E$29 + $E$30 * LN(T12 / $B$5) + $E$31 * (LN(T12 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.6663417099600034E-2</v>
       </c>
-      <c r="Y12" s="32">
-        <f>Y11+$X$10</f>
+      <c r="Y12" s="23">
+        <f t="shared" si="2"/>
         <v>1.0019999999999998</v>
       </c>
       <c r="Z12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="19">
         <f>O129</f>
         <v>525209.35012898908</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="19">
         <f>(B13 - B$8) * 0.01 / $F$12</f>
         <v>60288.072834009072</v>
       </c>
@@ -6826,37 +6813,37 @@
         <v>1E-4</v>
       </c>
       <c r="T13" s="5">
-        <f>T12+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
       <c r="U13" s="3">
-        <f>$E$29 + $E$30 * LN(T13 / $B$5) + $E$31 * (LN(T13 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.4366009883628237E-2</v>
       </c>
-      <c r="Y13" s="32">
-        <f>Y12+$X$10</f>
+      <c r="Y13" s="23">
+        <f t="shared" si="2"/>
         <v>1.0029999999999997</v>
       </c>
       <c r="Z13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T14" s="5">
-        <f>T13+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.04</v>
       </c>
       <c r="U14" s="3">
-        <f>$E$29 + $E$30 * LN(T14 / $B$5) + $E$31 * (LN(T14 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.2382253765023857E-2</v>
       </c>
-      <c r="Y14" s="32">
-        <f>Y13+$X$10</f>
+      <c r="Y14" s="23">
+        <f t="shared" si="2"/>
         <v>1.0039999999999996</v>
       </c>
       <c r="Z14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6872,676 +6859,650 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="T15" s="5">
-        <f>T14+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="U15" s="3">
-        <f>$E$29 + $E$30 * LN(T15 / $B$5) + $E$31 * (LN(T15 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.0703369964420143E-2</v>
       </c>
-      <c r="Y15" s="32">
-        <f>Y14+$X$10</f>
+      <c r="Y15" s="23">
+        <f t="shared" si="2"/>
         <v>1.0049999999999994</v>
       </c>
       <c r="Z15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="T16" s="5">
-        <f>T15+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
       <c r="U16" s="3">
-        <f>$E$29 + $E$30 * LN(T16 / $B$5) + $E$31 * (LN(T16 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>6.9320881717001334E-2</v>
       </c>
-      <c r="Y16" s="32">
-        <f>Y15+$X$10</f>
+      <c r="Y16" s="23">
+        <f t="shared" si="2"/>
         <v>1.0059999999999993</v>
       </c>
       <c r="Z16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="T17" s="5">
+        <f t="shared" si="1"/>
+        <v>1.07</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="T17" s="5">
-        <f>T16+$S$10</f>
-        <v>1.07</v>
-      </c>
-      <c r="U17" s="3">
-        <f>$E$29 + $E$30 * LN(T17 / $B$5) + $E$31 * (LN(T17 / $B$5))^2</f>
         <v>6.8226601460349756E-2</v>
       </c>
-      <c r="Y17" s="32">
-        <f>Y16+$X$10</f>
+      <c r="Y17" s="23">
+        <f t="shared" si="2"/>
         <v>1.0069999999999992</v>
       </c>
       <c r="Z17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T18" s="5">
-        <f>T17+$S$10</f>
-        <v>1.08</v>
-      </c>
-      <c r="U18" s="3">
-        <f>$E$29 + $E$30 * LN(T18 / $B$5) + $E$31 * (LN(T18 / $B$5))^2</f>
         <v>6.7412618672623437E-2</v>
       </c>
-      <c r="Y18" s="32">
-        <f>Y17+$X$10</f>
+      <c r="Y18" s="23">
+        <f t="shared" si="2"/>
         <v>1.0079999999999991</v>
       </c>
       <c r="Z18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="20">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="13">
         <f>B19 + B23 - B21/2</f>
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="14">
         <v>0.9</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E19 * EXP($B$4*$B$2), 0, 1) * D19 * SQRT($B$2) - ($B$3 - $B$4 + D19^2/2)*$B$2)</f>
         <v>1.0219034021510571</v>
       </c>
-      <c r="G19" s="22">
-        <f t="shared" ref="G19:G21" si="1">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D19*SQRT($B$2)) * (LN($B$1 / F19) + ($B$3 - $B$4 + D19^2/2)*$B$2), 0, 1, 1)</f>
+      <c r="G19" s="16">
+        <f t="shared" ref="G19:G21" si="4">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D19*SQRT($B$2)) * (LN($B$1 / F19) + ($B$3 - $B$4 + D19^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="T19" s="5">
-        <f>T18+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="U19" s="3">
-        <f>$E$29 + $E$30 * LN(T19 / $B$5) + $E$31 * (LN(T19 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>6.6871288322603889E-2</v>
       </c>
-      <c r="Y19" s="32">
-        <f>Y18+$X$10</f>
+      <c r="Y19" s="23">
+        <f t="shared" si="2"/>
         <v>1.008999999999999</v>
       </c>
       <c r="Z19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="20">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="13">
         <f>B19+B22 - B20/2</f>
         <v>7.1500000000000008E-2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="14">
         <v>0.75</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E20 * EXP($B$4*$B$2), 0, 1) * D20 * SQRT($B$2) - ($B$3 - $B$4 + D20^2/2)*$B$2)</f>
         <v>1.0483189248819247</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="T20" s="5">
-        <f>T19+$S$10</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="U20" s="3">
-        <f>$E$29 + $E$30 * LN(T20 / $B$5) + $E$31 * (LN(T20 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>6.6595219895749347E-2</v>
       </c>
-      <c r="Y20" s="32">
-        <f>Y19+$X$10</f>
+      <c r="Y20" s="23">
+        <f t="shared" si="2"/>
         <v>1.0099999999999989</v>
       </c>
       <c r="Z20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="20">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="13">
         <f>B19</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="14">
         <v>0.5</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E21 * EXP($B$4*$B$2), 0, 1) * D21 * SQRT($B$2) - ($B$3 - $B$4 + D21^2/2)*$B$2)</f>
         <v>1.0742324739661566</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.50000000000000078</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="1"/>
-        <v>0.50000000000000078</v>
-      </c>
-      <c r="T21" s="5">
-        <f>T20+$S$10</f>
         <v>1.1100000000000001</v>
       </c>
       <c r="U21" s="3">
-        <f>$E$29 + $E$30 * LN(T21 / $B$5) + $E$31 * (LN(T21 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>6.6577266962786777E-2</v>
       </c>
-      <c r="Y21" s="32">
-        <f>Y20+$X$10</f>
+      <c r="Y21" s="23">
+        <f t="shared" si="2"/>
         <v>1.0109999999999988</v>
       </c>
       <c r="Z21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="20">
         <v>1.5E-3</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="13">
         <f>B19 + B22 + B20/2</f>
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="14">
         <v>0.25</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E22 * EXP($B$4*$B$2), 0, 1) * D22 * SQRT($B$2) - ($B$3 - $B$4 + D22^2/2)*$B$2)</f>
         <v>1.0987342735852066</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D22*SQRT($B$2)) * (LN($B$1 / F22) + ($B$3 - $B$4 + D22^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.25000000000000033</v>
       </c>
       <c r="T22" s="5">
-        <f>T21+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="U22" s="3">
-        <f>$E$29 + $E$30 * LN(T22 / $B$5) + $E$31 * (LN(T22 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>6.6810517259594429E-2</v>
       </c>
-      <c r="Y22" s="32">
-        <f>Y21+$X$10</f>
+      <c r="Y22" s="23">
+        <f t="shared" si="2"/>
         <v>1.0119999999999987</v>
       </c>
       <c r="Z22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <f>B19 + B23 + B21/2</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="14">
         <v>0.1</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E23 * EXP($B$4*$B$2), 0, 1) * D23 * SQRT($B$2) - ($B$3 - $B$4 + D23^2/2)*$B$2)</f>
         <v>1.1215756522217628</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D23*SQRT($B$2)) * (LN($B$1 / F23) + ($B$3 - $B$4 + D23^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="S23" s="9"/>
       <c r="T23" s="5">
-        <f>T22+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.1300000000000001</v>
       </c>
       <c r="U23" s="3">
-        <f>$E$29 + $E$30 * LN(T23 / $B$5) + $E$31 * (LN(T23 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>6.7288283249180209E-2</v>
       </c>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
-      <c r="Y23" s="32">
-        <f>Y22+$X$10</f>
+      <c r="Y23" s="23">
+        <f t="shared" si="2"/>
         <v>1.0129999999999986</v>
       </c>
       <c r="Z23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="T24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="U24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="T24" s="5">
-        <f>T23+$S$10</f>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="U24" s="3">
-        <f>$E$29 + $E$30 * LN(T24 / $B$5) + $E$31 * (LN(T24 / $B$5))^2</f>
         <v>6.8004093138462993E-2</v>
       </c>
-      <c r="Y24" s="32">
-        <f>Y23+$X$10</f>
+      <c r="Y24" s="23">
+        <f t="shared" si="2"/>
         <v>1.0139999999999985</v>
       </c>
       <c r="Z24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="3"/>
+      <c r="T25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="U25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="38">
-        <v>1.07108</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="T25" s="5">
-        <f>T24+$S$10</f>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="U25" s="3">
-        <f>$E$29 + $E$30 * LN(T25 / $B$5) + $E$31 * (LN(T25 / $B$5))^2</f>
         <v>6.8951682324326954E-2</v>
       </c>
-      <c r="Y25" s="32">
-        <f>Y24+$X$10</f>
+      <c r="Y25" s="23">
+        <f t="shared" si="2"/>
         <v>1.0149999999999983</v>
       </c>
       <c r="Z25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="3"/>
+      <c r="T26" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="U26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="38">
-        <v>1.07555</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="T26" s="5">
-        <f>T25+$S$10</f>
-        <v>1.1600000000000001</v>
-      </c>
-      <c r="U26" s="3">
-        <f>$E$29 + $E$30 * LN(T26 / $B$5) + $E$31 * (LN(T26 / $B$5))^2</f>
         <v>7.0124985245054006E-2</v>
       </c>
-      <c r="Y26" s="32">
-        <f>Y25+$X$10</f>
+      <c r="Y26" s="23">
+        <f t="shared" si="2"/>
         <v>1.0159999999999982</v>
       </c>
       <c r="Z26" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="T27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="U27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="T27" s="5">
-        <f>T26+$S$10</f>
-        <v>1.1700000000000002</v>
-      </c>
-      <c r="U27" s="3">
-        <f>$E$29 + $E$30 * LN(T27 / $B$5) + $E$31 * (LN(T27 / $B$5))^2</f>
         <v>7.1518127614757274E-2</v>
       </c>
-      <c r="Y27" s="32">
-        <f>Y26+$X$10</f>
+      <c r="Y27" s="23">
+        <f t="shared" si="2"/>
         <v>1.0169999999999981</v>
       </c>
       <c r="Z27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="31"/>
       <c r="D28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="37">
-        <v>0.25</v>
-      </c>
-      <c r="H28" s="12"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="3"/>
       <c r="T28" s="5">
-        <f>T27+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.1800000000000002</v>
       </c>
       <c r="U28" s="3">
-        <f>$E$29 + $E$30 * LN(T28 / $B$5) + $E$31 * (LN(T28 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.3125419019847468E-2</v>
       </c>
-      <c r="Y28" s="32">
-        <f>Y27+$X$10</f>
+      <c r="Y28" s="23">
+        <f t="shared" si="2"/>
         <v>1.017999999999998</v>
       </c>
       <c r="Z28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="16">
         <f>INDEX(LINEST(D19:D23, A30:B34, 1, 0), 3)</f>
         <v>6.7866121700167051E-2</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="12">
-        <f>(G25*(1+G27*G28)/G26-1)/G28</f>
-        <v>3.3168146529682474E-2</v>
-      </c>
-      <c r="H29" s="12"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="T29" s="5">
-        <f>T28+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.1900000000000002</v>
       </c>
       <c r="U29" s="3">
-        <f>$E$29 + $E$30 * LN(T29 / $B$5) + $E$31 * (LN(T29 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.4941345857874195E-2</v>
       </c>
-      <c r="Y29" s="32">
-        <f>Y28+$X$10</f>
+      <c r="Y29" s="23">
+        <f t="shared" si="2"/>
         <v>1.0189999999999979</v>
       </c>
       <c r="Z29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="22">
+      <c r="A30" s="16">
         <f>LN(F19 / $B$5)</f>
         <v>-4.974167960264423E-2</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="16">
         <f>A30^2</f>
         <v>2.474234689692113E-3</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="16">
         <f>INDEX(LINEST(D19:D23, A30:B34, 1, 0), 2)</f>
         <v>-9.0302462763527047E-2</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="T30" s="5">
-        <f>T29+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="U30" s="3">
-        <f>$E$29 + $E$30 * LN(T30 / $B$5) + $E$31 * (LN(T30 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.6960564600301845E-2</v>
       </c>
-      <c r="Y30" s="32">
-        <f>Y29+$X$10</f>
+      <c r="Y30" s="23">
+        <f t="shared" si="2"/>
         <v>1.0199999999999978</v>
       </c>
       <c r="Z30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="22">
+      <c r="A31" s="16">
         <f>LN(F20 / $B$5)</f>
         <v>-2.4220791234759571E-2</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="16">
         <f>A31^2</f>
         <v>5.8664672803780606E-4</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="16">
         <f>INDEX(LINEST(D19:D23, A30:B34, 1, 0), 1)</f>
         <v>1.5534595427188418</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="12"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="T31" s="5">
-        <f>T30+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.2100000000000002</v>
       </c>
       <c r="U31" s="3">
-        <f>$E$29 + $E$30 * LN(T31 / $B$5) + $E$31 * (LN(T31 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>7.9177895361913053E-2</v>
       </c>
-      <c r="Y31" s="32">
-        <f>Y30+$X$10</f>
+      <c r="Y31" s="23">
+        <f t="shared" si="2"/>
         <v>1.0209999999999977</v>
       </c>
       <c r="Z31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="22">
+      <c r="A32" s="16">
         <f>LN(F21 / $B$5)</f>
         <v>1.9778039644311973E-4</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="16">
         <f>A32^2</f>
         <v>3.9117085217197607E-8</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="T32" s="5">
-        <f>T31+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.2200000000000002</v>
       </c>
       <c r="U32" s="3">
-        <f>$E$29 + $E$30 * LN(T32 / $B$5) + $E$31 * (LN(T32 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>8.1588315760587796E-2</v>
       </c>
-      <c r="Y32" s="32">
-        <f>Y31+$X$10</f>
+      <c r="Y32" s="23">
+        <f t="shared" si="2"/>
         <v>1.0219999999999976</v>
       </c>
       <c r="Z32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="22">
+      <c r="A33" s="16">
         <f>LN(F22 / $B$5)</f>
         <v>2.2750208435502725E-2</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="16">
         <f>A33^2</f>
         <v>5.1757198385881937E-4</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="T33" s="5">
-        <f>T32+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.2300000000000002</v>
       </c>
       <c r="U33" s="3">
-        <f>$E$29 + $E$30 * LN(T33 / $B$5) + $E$31 * (LN(T33 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>8.4186955052189122E-2</v>
       </c>
-      <c r="Y33" s="32">
-        <f>Y32+$X$10</f>
+      <c r="Y33" s="23">
+        <f t="shared" si="2"/>
         <v>1.0229999999999975</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="22">
+      <c r="A34" s="16">
         <f>LN(F23 / $B$5)</f>
         <v>4.3325880512575798E-2</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="16">
         <f>A34^2</f>
         <v>1.8771319221899954E-3</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="T34" s="5">
-        <f>T33+$S$10</f>
+        <f t="shared" si="1"/>
         <v>1.2400000000000002</v>
       </c>
       <c r="U34" s="3">
-        <f>$E$29 + $E$30 * LN(T34 / $B$5) + $E$31 * (LN(T34 / $B$5))^2</f>
+        <f t="shared" si="0"/>
         <v>8.6969088526201888E-2</v>
       </c>
-      <c r="Y34" s="32">
-        <f>Y33+$X$10</f>
+      <c r="Y34" s="23">
+        <f t="shared" si="2"/>
         <v>1.0239999999999974</v>
       </c>
       <c r="Z34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7560,30 +7521,30 @@
         <v>10P</v>
       </c>
       <c r="X35" s="9"/>
-      <c r="Y35" s="32">
-        <f>Y34+$X$10</f>
+      <c r="Y35" s="23">
+        <f t="shared" si="2"/>
         <v>1.0249999999999972</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="12" t="s">
         <v>38</v>
       </c>
       <c r="T36" s="6">
@@ -7598,36 +7559,36 @@
         <f>C20</f>
         <v>25P</v>
       </c>
-      <c r="Y36" s="32">
-        <f>Y35+$X$10</f>
+      <c r="Y36" s="23">
+        <f t="shared" si="2"/>
         <v>1.0259999999999971</v>
       </c>
       <c r="Z36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="17">
         <f>$F$3</f>
         <v>1.05</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="13">
         <f>E29 + E30*LN(B37/$B$5) + E31*LN(B37/$B$5)^2</f>
         <v>7.0703369964420143E-2</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="18">
         <f>1 / (C37 * SQRT($B$2)) * (LN($B$1/B37) + ($B$3-$B$4 + C37^2/2)*$B$2)</f>
         <v>0.65748931434584035</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="18">
         <f>1 / (C37 * SQRT($B$2)) * (LN($B$1/B37) + ($B$3-$B$4 - C37^2/2)*$B$2)</f>
         <v>0.62213762936363037</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D37,0,1,1) - B37*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E37, 0, 1, 1)) * $F$2</f>
         <v>29579.597048049687</v>
       </c>
@@ -7643,36 +7604,36 @@
         <f>C21</f>
         <v>DN</v>
       </c>
-      <c r="Y37" s="32">
-        <f>Y36+$X$10</f>
+      <c r="Y37" s="23">
+        <f t="shared" si="2"/>
         <v>1.026999999999997</v>
       </c>
       <c r="Z37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="17">
         <f>$F$3 + $F$13</f>
         <v>1.0501</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="13">
         <f>E29 + E30*LN(B38/$B$5) + E31*LN(B38/$B$5)^2</f>
         <v>7.068809180414487E-2</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="18">
         <f>1 / (C38 * SQRT($B$2)) * (LN($B$1/B38) + ($B$3-$B$4 + C38^2/2)*$B$2)</f>
         <v>0.65492930827737461</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="18">
         <f>1 / (C38 * SQRT($B$2)) * (LN($B$1/B38) + ($B$3-$B$4 - C38^2/2)*$B$2)</f>
         <v>0.6195852623753022</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D38,0,1,1) - B38*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E38, 0, 1, 1)) * $F$2</f>
         <v>29504.635382350265</v>
       </c>
@@ -7688,36 +7649,36 @@
         <f>C22</f>
         <v>25C</v>
       </c>
-      <c r="Y38" s="32">
-        <f>Y37+$X$10</f>
+      <c r="Y38" s="23">
+        <f t="shared" si="2"/>
         <v>1.0279999999999969</v>
       </c>
       <c r="Z38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="17">
         <f>$F$4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="13">
         <f>E29 + E30*LN(B39/$B$5) + E31*LN(B39/$B$5)^2</f>
         <v>6.6595219895749347E-2</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="18">
         <f>1 / (C39 * SQRT($B$2)) * (LN($B$1/B39) + ($B$3-$B$4 + C39^2/2)*$B$2)</f>
         <v>-0.70116641863900286</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="18">
         <f>1 / (C39 * SQRT($B$2)) * (LN($B$1/B39) + ($B$3-$B$4 - C39^2/2)*$B$2)</f>
         <v>-0.73446402858687765</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D39,0,1,1) - B39*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E39, 0, 1, 1)) * $F$2</f>
         <v>4954.1884340904007</v>
       </c>
@@ -7733,97 +7694,96 @@
         <f>C23</f>
         <v>10C</v>
       </c>
-      <c r="Y39" s="32">
-        <f>Y38+$X$10</f>
+      <c r="Y39" s="23">
+        <f t="shared" si="2"/>
         <v>1.0289999999999968</v>
       </c>
       <c r="Z39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="17">
         <f>$F$4+$F$13</f>
         <v>1.1001000000000001</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="13">
         <f>E29 + E30*LN(B40/$B$5) + E31*LN(B40/$B$5)^2</f>
         <v>6.6593774404931971E-2</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="18">
         <f>1 / (C40 * SQRT($B$2)) * (LN($B$1/B40) + ($B$3-$B$4 + C40^2/2)*$B$2)</f>
         <v>-0.70391249482971141</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="18">
         <f>1 / (C40 * SQRT($B$2)) * (LN($B$1/B40) + ($B$3-$B$4 - C40^2/2)*$B$2)</f>
         <v>-0.73720938203217734</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D40,0,1,1) - B40*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E40, 0, 1, 1)) * $F$2</f>
         <v>4931.1448226755374</v>
       </c>
-      <c r="Y40" s="32">
-        <f>Y39+$X$10</f>
+      <c r="Y40" s="23">
+        <f t="shared" si="2"/>
         <v>1.0299999999999967</v>
       </c>
       <c r="Z40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Y41" s="32">
-        <f>Y40+$X$10</f>
+      <c r="Y41" s="23">
+        <f t="shared" si="2"/>
         <v>1.0309999999999966</v>
       </c>
       <c r="Z41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="19">
         <f>(F37 - F38) / $F$13</f>
         <v>749616.6569942215</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="19">
         <f>(F39 - F40) / $F$13</f>
         <v>230436.11414863335</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="26">
+      <c r="E42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19">
         <f>B42-D42</f>
         <v>519180.54284558818</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="Y42" s="32">
-        <f>Y41+$X$10</f>
+      <c r="Y42" s="23">
+        <f t="shared" si="2"/>
         <v>1.0319999999999965</v>
       </c>
       <c r="Z42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="Y43" s="32">
-        <f>Y42+$X$10</f>
+      <c r="Y43" s="23">
+        <f t="shared" si="2"/>
         <v>1.0329999999999964</v>
       </c>
       <c r="Z43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7847,777 +7807,763 @@
       <c r="V44"/>
       <c r="W44"/>
       <c r="X44"/>
-      <c r="Y44" s="32">
-        <f>Y43+$X$10</f>
+      <c r="Y44" s="23">
+        <f t="shared" si="2"/>
         <v>1.0339999999999963</v>
       </c>
       <c r="Z44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Y45" s="32">
-        <f>Y44+$X$10</f>
+      <c r="Y45" s="23">
+        <f t="shared" si="2"/>
         <v>1.0349999999999961</v>
       </c>
       <c r="Z45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="31"/>
+      <c r="C46" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="Y46" s="32">
-        <f>Y45+$X$10</f>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="Y46" s="23">
+        <f t="shared" si="2"/>
         <v>1.035999999999996</v>
       </c>
       <c r="Z46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="12" t="s">
         <v>14</v>
       </c>
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-      <c r="Y47" s="32">
-        <f>Y46+$X$10</f>
+      <c r="Y47" s="23">
+        <f t="shared" si="2"/>
         <v>1.0369999999999959</v>
       </c>
       <c r="Z47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="13">
         <f>$B$19+$F$12</f>
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="13">
         <f>B48 + B52 - B50/2</f>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="14">
         <v>0.9</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E48 * EXP($B$4*$B$2), 0, 1) * D48 * SQRT($B$2) - ($B$3 - $B$4 + D48^2/2)*$B$2)</f>
         <v>1.021244618940542</v>
       </c>
-      <c r="G48" s="22">
-        <f t="shared" ref="G48:G50" si="2">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D48*SQRT($B$2)) * (LN($B$1 / F48) + ($B$3 - $B$4 + D48^2/2)*$B$2), 0, 1, 1)</f>
+      <c r="G48" s="16">
+        <f t="shared" ref="G48:G50" si="5">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D48*SQRT($B$2)) * (LN($B$1 / F48) + ($B$3 - $B$4 + D48^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.90000000000000047</v>
       </c>
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
-      <c r="Y48" s="32">
-        <f>Y47+$X$10</f>
+      <c r="Y48" s="23">
+        <f t="shared" si="2"/>
         <v>1.0379999999999958</v>
       </c>
       <c r="Z48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B49" s="20">
         <f>$B$20</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="13">
         <f>B48+B51 - B49/2</f>
         <v>7.2500000000000009E-2</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="14">
         <v>0.75</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E49 * EXP($B$4*$B$2), 0, 1) * D49 * SQRT($B$2) - ($B$3 - $B$4 + D49^2/2)*$B$2)</f>
         <v>1.0479733617665279</v>
       </c>
-      <c r="G49" s="22">
-        <f t="shared" si="2"/>
+      <c r="G49" s="16">
+        <f t="shared" si="5"/>
         <v>0.75000000000000067</v>
       </c>
       <c r="N49" s="6"/>
       <c r="P49" s="3"/>
-      <c r="Y49" s="32">
-        <f>Y48+$X$10</f>
+      <c r="Y49" s="23">
+        <f t="shared" si="2"/>
         <v>1.0389999999999957</v>
       </c>
       <c r="Z49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="20">
         <f>$B$21</f>
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="13">
         <f>B48</f>
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="14">
         <v>0.5</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E50 * EXP($B$4*$B$2), 0, 1) * D50 * SQRT($B$2) - ($B$3 - $B$4 + D50^2/2)*$B$2)</f>
         <v>1.0742448197396879</v>
       </c>
-      <c r="G50" s="22">
-        <f t="shared" si="2"/>
+      <c r="G50" s="16">
+        <f t="shared" si="5"/>
         <v>0.50000000000000056</v>
       </c>
       <c r="N50" s="6"/>
       <c r="P50" s="3"/>
-      <c r="Y50" s="32">
-        <f>Y49+$X$10</f>
+      <c r="Y50" s="23">
+        <f t="shared" si="2"/>
         <v>1.0399999999999956</v>
       </c>
       <c r="Z50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="27">
+      <c r="B51" s="20">
         <f>$B$22</f>
         <v>1.5E-3</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="13">
         <f>B48 + B51 + B49/2</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="14">
         <v>0.25</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E51 * EXP($B$4*$B$2), 0, 1) * D51 * SQRT($B$2) - ($B$3 - $B$4 + D51^2/2)*$B$2)</f>
         <v>1.099119497892739</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D51*SQRT($B$2)) * (LN($B$1 / F51) + ($B$3 - $B$4 + D51^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.25000000000000033</v>
       </c>
       <c r="N51" s="6"/>
       <c r="P51" s="3"/>
-      <c r="Y51" s="32">
-        <f>Y50+$X$10</f>
+      <c r="Y51" s="23">
+        <f t="shared" si="2"/>
         <v>1.0409999999999955</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="20">
         <f>$B$23</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="13">
         <f>B48 + B52 + B50/2</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="14">
         <v>0.1</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E52 * EXP($B$4*$B$2), 0, 1) * D52 * SQRT($B$2) - ($B$3 - $B$4 + D52^2/2)*$B$2)</f>
         <v>1.1223106988014795</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D52*SQRT($B$2)) * (LN($B$1 / F52) + ($B$3 - $B$4 + D52^2/2)*$B$2), 0, 1, 1)</f>
         <v>9.9999999999999353E-2</v>
       </c>
       <c r="N52" s="6"/>
       <c r="P52" s="3"/>
-      <c r="Y52" s="32">
-        <f>Y51+$X$10</f>
+      <c r="Y52" s="23">
+        <f t="shared" si="2"/>
         <v>1.0419999999999954</v>
       </c>
       <c r="Z52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="B53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
       <c r="N53" s="6"/>
       <c r="P53" s="3"/>
-      <c r="Y53" s="32">
-        <f>Y52+$X$10</f>
+      <c r="Y53" s="23">
+        <f t="shared" si="2"/>
         <v>1.0429999999999953</v>
       </c>
       <c r="Z53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A54" s="25" t="s">
+      <c r="A54" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="B54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
       <c r="N54" s="6"/>
       <c r="P54" s="3"/>
-      <c r="Y54" s="32">
-        <f>Y53+$X$10</f>
+      <c r="Y54" s="23">
+        <f t="shared" si="2"/>
         <v>1.0439999999999952</v>
       </c>
       <c r="Z54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
       <c r="N55" s="6"/>
       <c r="P55" s="3"/>
-      <c r="Y55" s="32">
-        <f>Y54+$X$10</f>
+      <c r="Y55" s="23">
+        <f t="shared" si="2"/>
         <v>1.044999999999995</v>
       </c>
       <c r="Z55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="B56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
       <c r="N56" s="6"/>
       <c r="P56" s="3"/>
-      <c r="Y56" s="32">
-        <f>Y55+$X$10</f>
+      <c r="Y56" s="23">
+        <f t="shared" si="2"/>
         <v>1.0459999999999949</v>
       </c>
       <c r="Z56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="31"/>
       <c r="D57" t="s">
         <v>58</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
       <c r="N57" s="6"/>
       <c r="P57" s="3"/>
-      <c r="Y57" s="32">
-        <f>Y56+$X$10</f>
+      <c r="Y57" s="23">
+        <f t="shared" si="2"/>
         <v>1.0469999999999948</v>
       </c>
       <c r="Z57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="16">
         <f>INDEX(LINEST(D48:D52, A59:B63, 1, 0), 3)</f>
         <v>6.8865915354552512E-2</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
       <c r="N58" s="6"/>
       <c r="P58" s="3"/>
-      <c r="Y58" s="32">
-        <f>Y57+$X$10</f>
+      <c r="Y58" s="23">
+        <f t="shared" si="2"/>
         <v>1.0479999999999947</v>
       </c>
       <c r="Z58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="22">
+      <c r="A59" s="16">
         <f>LN(F48 / $B$5)</f>
         <v>-5.0386550386889488E-2</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="16">
         <f>A59^2</f>
         <v>2.5388044598905531E-3</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="16">
         <f>INDEX(LINEST(D48:D52, A59:B63, 1, 0), 2)</f>
         <v>-8.9170218557243372E-2</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="N59" s="6"/>
       <c r="P59" s="3"/>
-      <c r="Y59" s="32">
-        <f>Y58+$X$10</f>
+      <c r="Y59" s="23">
+        <f t="shared" si="2"/>
         <v>1.0489999999999946</v>
       </c>
       <c r="Z59" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="22">
+      <c r="A60" s="16">
         <f>LN(F49 / $B$5)</f>
         <v>-2.4550481059721338E-2</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="16">
         <f>A60^2</f>
         <v>6.0272612026373619E-4</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E60" s="16">
         <f>INDEX(LINEST(D48:D52, A59:B63, 1, 0), 1)</f>
         <v>1.5132460645071513</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
       <c r="N60" s="6"/>
       <c r="P60" s="3"/>
-      <c r="Y60" s="32">
-        <f>Y59+$X$10</f>
+      <c r="Y60" s="23">
+        <f t="shared" si="2"/>
         <v>1.0499999999999945</v>
       </c>
       <c r="Z60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A61" s="22">
+      <c r="A61" s="16">
         <f>LN(F50 / $B$5)</f>
         <v>2.0927297639054267E-4</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="16">
         <f>A61^2</f>
         <v>4.3795178647356629E-8</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
       <c r="N61" s="6"/>
       <c r="P61" s="3"/>
-      <c r="Y61" s="32">
-        <f>Y60+$X$10</f>
+      <c r="Y61" s="23">
+        <f t="shared" si="2"/>
         <v>1.0509999999999944</v>
       </c>
       <c r="Z61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A62" s="22">
+      <c r="A62" s="16">
         <f>LN(F51 / $B$5)</f>
         <v>2.3100754333028922E-2</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="16">
         <f>A62^2</f>
         <v>5.3364485075495444E-4</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
       <c r="N62" s="6"/>
       <c r="P62" s="3"/>
-      <c r="Y62" s="32">
-        <f>Y61+$X$10</f>
+      <c r="Y62" s="23">
+        <f t="shared" si="2"/>
         <v>1.0519999999999943</v>
       </c>
       <c r="Z62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="22">
+      <c r="A63" s="16">
         <f>LN(F52 / $B$5)</f>
         <v>4.3981035445599351E-2</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="16">
         <f>A63^2</f>
         <v>1.9343314788670665E-3</v>
       </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
       <c r="N63" s="6"/>
       <c r="P63" s="3"/>
-      <c r="Y63" s="32">
-        <f>Y62+$X$10</f>
+      <c r="Y63" s="23">
+        <f t="shared" si="2"/>
         <v>1.0529999999999942</v>
       </c>
       <c r="Z63" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N64" s="6"/>
       <c r="P64" s="3"/>
-      <c r="Y64" s="32">
-        <f>Y63+$X$10</f>
+      <c r="Y64" s="23">
+        <f t="shared" si="2"/>
         <v>1.0539999999999941</v>
       </c>
       <c r="Z64" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N65" s="6"/>
       <c r="P65" s="3"/>
-      <c r="Y65" s="32">
-        <f>Y64+$X$10</f>
+      <c r="Y65" s="23">
+        <f t="shared" si="2"/>
         <v>1.0549999999999939</v>
       </c>
       <c r="Z65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="23">
+      <c r="B66" s="17">
         <f>$F$3</f>
         <v>1.05</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="13">
         <f>E58 + E59*LN(B66/$B$5) + E60*LN(B66/$B$5)^2</f>
         <v>7.1656980923144584E-2</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="18">
         <f>1 / (C66 * SQRT($B$2)) * (LN($B$1/B66) + ($B$3-$B$4 + C66^2/2)*$B$2)</f>
         <v>0.64921308068248074</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="18">
         <f>1 / (C66 * SQRT($B$2)) * (LN($B$1/B66) + ($B$3-$B$4 - C66^2/2)*$B$2)</f>
         <v>0.61338459022090841</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F66" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D66,0,1,1) - B66*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E66, 0, 1, 1)) * $F$2</f>
         <v>29742.581631286957</v>
       </c>
       <c r="N66" s="6"/>
       <c r="P66" s="3"/>
-      <c r="Y66" s="32">
-        <f>Y65+$X$10</f>
+      <c r="Y66" s="23">
+        <f t="shared" si="2"/>
         <v>1.0559999999999938</v>
       </c>
       <c r="Z66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="17">
         <f>$F$3 + $F$13</f>
         <v>1.0501</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="13">
         <f>E58 + E59*LN(B67/$B$5) + E60*LN(B67/$B$5)^2</f>
         <v>7.164198346858687E-2</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="18">
         <f>1 / (C67 * SQRT($B$2)) * (LN($B$1/B67) + ($B$3-$B$4 + C67^2/2)*$B$2)</f>
         <v>0.64668289030762249</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="18">
         <f>1 / (C67 * SQRT($B$2)) * (LN($B$1/B67) + ($B$3-$B$4 - C67^2/2)*$B$2)</f>
         <v>0.61086189857332918</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F67" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D67,0,1,1) - B67*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E67, 0, 1, 1)) * $F$2</f>
         <v>29667.938722476305</v>
       </c>
       <c r="N67" s="6"/>
       <c r="P67" s="3"/>
-      <c r="Y67" s="32">
-        <f>Y66+$X$10</f>
+      <c r="Y67" s="23">
+        <f t="shared" si="2"/>
         <v>1.0569999999999937</v>
       </c>
       <c r="Z67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="17">
         <f>$F$4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="13">
         <f>E58 + E59*LN(B68/$B$5) + E60*LN(B68/$B$5)^2</f>
         <v>6.7599102635991462E-2</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D68" s="18">
         <f>1 / (C68 * SQRT($B$2)) * (LN($B$1/B68) + ($B$3-$B$4 + C68^2/2)*$B$2)</f>
         <v>-0.69025550890788179</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E68" s="18">
         <f>1 / (C68 * SQRT($B$2)) * (LN($B$1/B68) + ($B$3-$B$4 - C68^2/2)*$B$2)</f>
         <v>-0.72405506022587751</v>
       </c>
-      <c r="F68" s="26">
+      <c r="F68" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D68,0,1,1) - B68*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E68, 0, 1, 1)) * $F$2</f>
         <v>5120.9329000391217</v>
       </c>
       <c r="N68" s="6"/>
       <c r="P68" s="3"/>
-      <c r="Y68" s="32">
-        <f>Y67+$X$10</f>
+      <c r="Y68" s="23">
+        <f t="shared" si="2"/>
         <v>1.0579999999999936</v>
       </c>
       <c r="Z68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="23">
+      <c r="B69" s="17">
         <f>$F$4+$F$13</f>
         <v>1.1001000000000001</v>
       </c>
-      <c r="C69" s="19">
+      <c r="C69" s="13">
         <f>E58 + E59*LN(B69/$B$5) + E60*LN(B69/$B$5)^2</f>
         <v>6.7597584990379517E-2</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="18">
         <f>1 / (C69 * SQRT($B$2)) * (LN($B$1/B69) + ($B$3-$B$4 + C69^2/2)*$B$2)</f>
         <v>-0.69296135670246384</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="18">
         <f>1 / (C69 * SQRT($B$2)) * (LN($B$1/B69) + ($B$3-$B$4 - C69^2/2)*$B$2)</f>
         <v>-0.72676014919765364</v>
       </c>
-      <c r="F69" s="26">
+      <c r="F69" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D69,0,1,1) - B69*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E69, 0, 1, 1)) * $F$2</f>
         <v>5097.5608035783716</v>
       </c>
       <c r="N69" s="6"/>
       <c r="P69" s="3"/>
-      <c r="Y69" s="32">
-        <f>Y68+$X$10</f>
+      <c r="Y69" s="23">
+        <f t="shared" si="2"/>
         <v>1.0589999999999935</v>
       </c>
       <c r="Z69" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N70" s="6"/>
       <c r="P70" s="3"/>
-      <c r="Y70" s="32">
-        <f>Y69+$X$10</f>
+      <c r="Y70" s="23">
+        <f t="shared" si="2"/>
         <v>1.0599999999999934</v>
       </c>
       <c r="Z70" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="19">
         <f>(F66 - F67) / $F$13</f>
         <v>746429.08810652443</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="19">
         <f>(F68 - F69) / $F$13</f>
         <v>233720.9646075007</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="26">
+      <c r="E71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="19">
         <f>B71-D71</f>
         <v>512708.12349902373</v>
       </c>
-      <c r="H71" s="11"/>
       <c r="N71" s="6"/>
       <c r="P71" s="3"/>
-      <c r="Y71" s="32">
-        <f>Y70+$X$10</f>
+      <c r="Y71" s="23">
+        <f t="shared" si="2"/>
         <v>1.0609999999999933</v>
       </c>
       <c r="Z71" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N72" s="6"/>
       <c r="P72" s="3"/>
-      <c r="Y72" s="32">
-        <f>Y71+$X$10</f>
+      <c r="Y72" s="23">
+        <f t="shared" si="2"/>
         <v>1.0619999999999932</v>
       </c>
       <c r="Z72" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
@@ -8649,827 +8595,801 @@
       <c r="V73"/>
       <c r="W73"/>
       <c r="X73"/>
-      <c r="Y73" s="32">
-        <f>Y72+$X$10</f>
+      <c r="Y73" s="23">
+        <f t="shared" si="2"/>
         <v>1.0629999999999931</v>
       </c>
       <c r="Z73" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Y74" s="32">
-        <f>Y73+$X$10</f>
-        <v>1.063999999999993</v>
-      </c>
-      <c r="Z74" s="7">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="4"/>
-      <c r="J75" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="Y75" s="32">
-        <f>Y74+$X$10</f>
-        <v>1.0649999999999928</v>
-      </c>
-      <c r="Z75" s="7">
-        <f t="shared" ref="Z75:Z138" si="3">IF(AND(Y75&gt;=$F$3, Y75&lt;=$F$4), $F$2, 0)</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N76" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O76" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="P76" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y76" s="32">
-        <f>Y75+$X$10</f>
-        <v>1.0659999999999927</v>
-      </c>
-      <c r="Z76" s="7">
         <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Y74" s="23">
+        <f t="shared" si="2"/>
+        <v>1.063999999999993</v>
+      </c>
+      <c r="Z74" s="7">
+        <f t="shared" si="3"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="4"/>
+      <c r="J75" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="Y75" s="23">
+        <f t="shared" ref="Y75:Y138" si="6">Y74+$X$10</f>
+        <v>1.0649999999999928</v>
+      </c>
+      <c r="Z75" s="7">
+        <f t="shared" ref="Z75:Z138" si="7">IF(AND(Y75&gt;=$F$3, Y75&lt;=$F$4), $F$2, 0)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y76" s="23">
+        <f t="shared" si="6"/>
+        <v>1.0659999999999927</v>
+      </c>
+      <c r="Z76" s="7">
+        <f t="shared" si="7"/>
+        <v>1000000</v>
+      </c>
+    </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="27">
+      <c r="B77" s="20">
         <f>$B$19</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="13">
         <f>B77 + B81 - B79/2</f>
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="14">
         <v>0.9</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E77 * EXP($B$4*$B$2), 0, 1) * D77 * SQRT($B$2) - ($B$3 - $B$4 + D77^2/2)*$B$2)</f>
         <v>1.0219034021510571</v>
       </c>
-      <c r="G77" s="22">
-        <f t="shared" ref="G77:G79" si="4">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D77*SQRT($B$2)) * (LN($B$1 / F77) + ($B$3 - $B$4 + D77^2/2)*$B$2), 0, 1, 1)</f>
+      <c r="G77" s="16">
+        <f t="shared" ref="G77:G79" si="8">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D77*SQRT($B$2)) * (LN($B$1 / F77) + ($B$3 - $B$4 + D77^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="H77" s="3"/>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K77" s="27">
+      <c r="K77" s="20">
         <f>$B$19</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="L77" s="18" t="s">
+      <c r="L77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M77" s="13">
         <f>K77 + K81 - K79/2</f>
         <v>7.5500000000000012E-2</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="14">
         <v>0.9</v>
       </c>
-      <c r="O77" s="21">
+      <c r="O77" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N77 * EXP($B$4*$B$2), 0, 1) * M77 * SQRT($B$2) - ($B$3 - $B$4 + M77^2/2)*$B$2)</f>
         <v>1.0222330489361751</v>
       </c>
-      <c r="P77" s="22">
-        <f t="shared" ref="P77:P79" si="5">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M77*SQRT($B$2)) * (LN($B$1 / O77) + ($B$3 - $B$4 + M77^2/2)*$B$2), 0, 1, 1)</f>
+      <c r="P77" s="16">
+        <f t="shared" ref="P77:P79" si="9">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M77*SQRT($B$2)) * (LN($B$1 / O77) + ($B$3 - $B$4 + M77^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
-      <c r="Y77" s="32">
-        <f>Y76+$X$10</f>
+      <c r="Y77" s="23">
+        <f t="shared" si="6"/>
         <v>1.0669999999999926</v>
       </c>
       <c r="Z77" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="13">
         <f>$B$20+$F$12</f>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="13">
         <f>B77+B80 - B78/2</f>
         <v>7.1000000000000008E-2</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="14">
         <v>0.75</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E78 * EXP($B$4*$B$2), 0, 1) * D78 * SQRT($B$2) - ($B$3 - $B$4 + D78^2/2)*$B$2)</f>
         <v>1.0484918474636657</v>
       </c>
-      <c r="G78" s="22">
-        <f t="shared" si="4"/>
+      <c r="G78" s="16">
+        <f t="shared" si="8"/>
         <v>0.74999999999999922</v>
       </c>
       <c r="H78" s="3"/>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K78" s="27">
+      <c r="K78" s="20">
         <f>$B$20</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="L78" s="18" t="s">
+      <c r="L78" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M78" s="19">
+      <c r="M78" s="13">
         <f>K77+K80 - K78/2</f>
         <v>7.1500000000000008E-2</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="14">
         <v>0.75</v>
       </c>
-      <c r="O78" s="21">
+      <c r="O78" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N78 * EXP($B$4*$B$2), 0, 1) * M78 * SQRT($B$2) - ($B$3 - $B$4 + M78^2/2)*$B$2)</f>
         <v>1.0483189248819247</v>
       </c>
-      <c r="P78" s="22">
-        <f t="shared" si="5"/>
+      <c r="P78" s="16">
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
-      <c r="Y78" s="32">
-        <f>Y77+$X$10</f>
+      <c r="Y78" s="23">
+        <f t="shared" si="6"/>
         <v>1.0679999999999925</v>
       </c>
       <c r="Z78" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="27">
+      <c r="B79" s="20">
         <f>$B$21</f>
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="13">
         <f>B77</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="14">
         <v>0.5</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E79 * EXP($B$4*$B$2), 0, 1) * D79 * SQRT($B$2) - ($B$3 - $B$4 + D79^2/2)*$B$2)</f>
         <v>1.0742324739661566</v>
       </c>
-      <c r="G79" s="22">
-        <f t="shared" si="4"/>
+      <c r="G79" s="16">
+        <f t="shared" si="8"/>
         <v>0.50000000000000078</v>
       </c>
       <c r="H79" s="3"/>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="13">
         <f>$B$21+$F$12</f>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L79" s="18" t="s">
+      <c r="L79" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M79" s="19">
+      <c r="M79" s="13">
         <f>K77</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="14">
         <v>0.5</v>
       </c>
-      <c r="O79" s="21">
+      <c r="O79" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N79 * EXP($B$4*$B$2), 0, 1) * M79 * SQRT($B$2) - ($B$3 - $B$4 + M79^2/2)*$B$2)</f>
         <v>1.0742324739661566</v>
       </c>
-      <c r="P79" s="22">
-        <f t="shared" si="5"/>
+      <c r="P79" s="16">
+        <f t="shared" si="9"/>
         <v>0.50000000000000078</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
-      <c r="Y79" s="32">
-        <f>Y78+$X$10</f>
+      <c r="Y79" s="23">
+        <f t="shared" si="6"/>
         <v>1.0689999999999924</v>
       </c>
       <c r="Z79" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B80" s="27">
+      <c r="B80" s="20">
         <f>$B$22</f>
         <v>1.5E-3</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="13">
         <f>B77 + B80 + B78/2</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="14">
         <v>0.25</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E80 * EXP($B$4*$B$2), 0, 1) * D80 * SQRT($B$2) - ($B$3 - $B$4 + D80^2/2)*$B$2)</f>
         <v>1.0989268345176588</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D80*SQRT($B$2)) * (LN($B$1 / F80) + ($B$3 - $B$4 + D80^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.24999999999999856</v>
       </c>
       <c r="H80" s="3"/>
-      <c r="J80" s="18" t="s">
+      <c r="J80" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K80" s="27">
+      <c r="K80" s="20">
         <f>$B$22</f>
         <v>1.5E-3</v>
       </c>
-      <c r="L80" s="18" t="s">
+      <c r="L80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M80" s="19">
+      <c r="M80" s="13">
         <f>K77 + K80 + K78/2</f>
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="14">
         <v>0.25</v>
       </c>
-      <c r="O80" s="21">
+      <c r="O80" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N80 * EXP($B$4*$B$2), 0, 1) * M80 * SQRT($B$2) - ($B$3 - $B$4 + M80^2/2)*$B$2)</f>
         <v>1.0987342735852066</v>
       </c>
-      <c r="P80" s="22">
+      <c r="P80" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M80*SQRT($B$2)) * (LN($B$1 / O80) + ($B$3 - $B$4 + M80^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.25000000000000033</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
-      <c r="Y80" s="32">
-        <f>Y79+$X$10</f>
+      <c r="Y80" s="23">
+        <f t="shared" si="6"/>
         <v>1.0699999999999923</v>
       </c>
       <c r="Z80" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="27">
+      <c r="B81" s="20">
         <f>$B$23</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="13">
         <f>B77 + B81 + B79/2</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="14">
         <v>0.1</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E81 * EXP($B$4*$B$2), 0, 1) * D81 * SQRT($B$2) - ($B$3 - $B$4 + D81^2/2)*$B$2)</f>
         <v>1.1215756522217628</v>
       </c>
-      <c r="G81" s="22">
+      <c r="G81" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D81*SQRT($B$2)) * (LN($B$1 / F81) + ($B$3 - $B$4 + D81^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K81" s="27">
+      <c r="K81" s="20">
         <f>$B$23</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L81" s="18" t="s">
+      <c r="L81" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M81" s="19">
+      <c r="M81" s="13">
         <f>K77 + K81 + K79/2</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="N81" s="20">
+      <c r="N81" s="14">
         <v>0.1</v>
       </c>
-      <c r="O81" s="21">
+      <c r="O81" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N81 * EXP($B$4*$B$2), 0, 1) * M81 * SQRT($B$2) - ($B$3 - $B$4 + M81^2/2)*$B$2)</f>
         <v>1.1219430802547257</v>
       </c>
-      <c r="P81" s="22">
+      <c r="P81" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M81*SQRT($B$2)) * (LN($B$1 / O81) + ($B$3 - $B$4 + M81^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.10000000000000021</v>
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
-      <c r="Y81" s="32">
-        <f>Y80+$X$10</f>
+      <c r="Y81" s="23">
+        <f t="shared" si="6"/>
         <v>1.0709999999999922</v>
       </c>
       <c r="Z81" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="12"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="12"/>
-      <c r="Y82" s="32">
-        <f>Y81+$X$10</f>
+      <c r="B82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="3"/>
+      <c r="Y82" s="23">
+        <f t="shared" si="6"/>
         <v>1.0719999999999921</v>
       </c>
       <c r="Z82" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A83" s="25" t="s">
+      <c r="A83" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="12"/>
-      <c r="J83" s="25" t="s">
+      <c r="B83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="3"/>
+      <c r="J83" t="s">
         <v>57</v>
       </c>
-      <c r="K83" s="12"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="12"/>
-      <c r="Y83" s="32">
-        <f>Y82+$X$10</f>
+      <c r="K83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="3"/>
+      <c r="Y83" s="23">
+        <f t="shared" si="6"/>
         <v>1.072999999999992</v>
       </c>
       <c r="Z83" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A84" s="11" t="s">
+      <c r="A84" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="12"/>
+      <c r="B84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="5"/>
-      <c r="J84" s="11" t="s">
+      <c r="J84" t="s">
         <v>54</v>
       </c>
-      <c r="K84" s="12"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="12"/>
+      <c r="K84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="3"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="7"/>
-      <c r="Y84" s="32">
-        <f>Y83+$X$10</f>
+      <c r="Y84" s="23">
+        <f t="shared" si="6"/>
         <v>1.0739999999999919</v>
       </c>
       <c r="Z84" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="12"/>
+      <c r="B85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="5"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="12"/>
+      <c r="K85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="3"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="7"/>
-      <c r="Y85" s="32">
-        <f>Y84+$X$10</f>
+      <c r="Y85" s="23">
+        <f t="shared" si="6"/>
         <v>1.0749999999999917</v>
       </c>
       <c r="Z85" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="11"/>
+      <c r="B86" s="31"/>
       <c r="D86" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="12"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="5"/>
-      <c r="J86" s="17" t="s">
+      <c r="J86" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K86" s="17"/>
-      <c r="L86" s="11"/>
+      <c r="K86" s="31"/>
       <c r="M86" t="s">
         <v>58</v>
       </c>
-      <c r="O86" s="14"/>
-      <c r="P86" s="12"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="3"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="7"/>
-      <c r="Y86" s="32">
-        <f>Y85+$X$10</f>
+      <c r="Y86" s="23">
+        <f t="shared" si="6"/>
         <v>1.0759999999999916</v>
       </c>
       <c r="Z86" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="16">
         <f>INDEX(LINEST(D77:D81, A88:B92, 1, 0), 3)</f>
         <v>6.7851128995359833E-2</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="12"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="5"/>
-      <c r="J87" s="18" t="s">
+      <c r="J87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K87" s="18" t="s">
+      <c r="K87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L87" s="11"/>
-      <c r="M87" s="18" t="s">
+      <c r="M87" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="16">
         <f>INDEX(LINEST(M77:M81, J88:K92, 1, 0), 3)</f>
         <v>6.7867018331410012E-2</v>
       </c>
-      <c r="O87" s="14"/>
-      <c r="P87" s="12"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="3"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="7"/>
-      <c r="Y87" s="32">
-        <f>Y86+$X$10</f>
+      <c r="Y87" s="23">
+        <f t="shared" si="6"/>
         <v>1.0769999999999915</v>
       </c>
       <c r="Z87" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A88" s="22">
+      <c r="A88" s="16">
         <f>LN(F77 / $B$5)</f>
         <v>-4.974167960264423E-2</v>
       </c>
-      <c r="B88" s="22">
+      <c r="B88" s="16">
         <f>A88^2</f>
         <v>2.474234689692113E-3</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="16">
         <f>INDEX(LINEST(D77:D81, A88:B92, 1, 0), 2)</f>
         <v>-8.5908337636626975E-2</v>
       </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="12"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="5"/>
-      <c r="J88" s="22">
+      <c r="J88" s="16">
         <f>LN(O77 / $B$5)</f>
         <v>-4.941915046052147E-2</v>
       </c>
-      <c r="K88" s="22">
+      <c r="K88" s="16">
         <f>J88^2</f>
         <v>2.4422524322396592E-3</v>
       </c>
-      <c r="L88" s="11"/>
-      <c r="M88" s="18" t="s">
+      <c r="M88" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="16">
         <f>INDEX(LINEST(M77:M81, J88:K92, 1, 0), 2)</f>
         <v>-8.2447407203073378E-2</v>
       </c>
-      <c r="O88" s="14"/>
-      <c r="P88" s="12"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="3"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="7"/>
-      <c r="Y88" s="32">
-        <f>Y87+$X$10</f>
+      <c r="Y88" s="23">
+        <f t="shared" si="6"/>
         <v>1.0779999999999914</v>
       </c>
       <c r="Z88" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A89" s="22">
+      <c r="A89" s="16">
         <f>LN(F78 / $B$5)</f>
         <v>-2.4055852572278699E-2</v>
       </c>
-      <c r="B89" s="22">
+      <c r="B89" s="16">
         <f>A89^2</f>
         <v>5.7868404297920775E-4</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="16">
         <f>INDEX(LINEST(D77:D81, A88:B92, 1, 0), 1)</f>
         <v>1.5787374672498087</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="12"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="5"/>
-      <c r="J89" s="22">
+      <c r="J89" s="16">
         <f>LN(O78 / $B$5)</f>
         <v>-2.4220791234759571E-2</v>
       </c>
-      <c r="K89" s="22">
+      <c r="K89" s="16">
         <f>J89^2</f>
         <v>5.8664672803780606E-4</v>
       </c>
-      <c r="L89" s="11"/>
-      <c r="M89" s="18" t="s">
+      <c r="M89" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N89" s="22">
+      <c r="N89" s="16">
         <f>INDEX(LINEST(M77:M81, J88:K92, 1, 0), 1)</f>
         <v>1.574540056718253</v>
       </c>
-      <c r="O89" s="14"/>
-      <c r="P89" s="12"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="3"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="7"/>
-      <c r="Y89" s="32">
-        <f>Y88+$X$10</f>
+      <c r="Y89" s="23">
+        <f t="shared" si="6"/>
         <v>1.0789999999999913</v>
       </c>
       <c r="Z89" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A90" s="22">
+      <c r="A90" s="16">
         <f>LN(F79 / $B$5)</f>
         <v>1.9778039644311973E-4</v>
       </c>
-      <c r="B90" s="22">
+      <c r="B90" s="16">
         <f>A90^2</f>
         <v>3.9117085217197607E-8</v>
       </c>
-      <c r="C90" s="11"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="12"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="5"/>
-      <c r="J90" s="22">
+      <c r="J90" s="16">
         <f>LN(O79 / $B$5)</f>
         <v>1.9778039644311973E-4</v>
       </c>
-      <c r="K90" s="22">
+      <c r="K90" s="16">
         <f>J90^2</f>
         <v>3.9117085217197607E-8</v>
       </c>
-      <c r="L90" s="11"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="12"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="3"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="7"/>
-      <c r="Y90" s="32">
-        <f>Y89+$X$10</f>
+      <c r="Y90" s="23">
+        <f t="shared" si="6"/>
         <v>1.0799999999999912</v>
       </c>
       <c r="Z90" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A91" s="22">
+      <c r="A91" s="16">
         <f>LN(F80 / $B$5)</f>
         <v>2.2925450134266001E-2</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B91" s="16">
         <f>A91^2</f>
         <v>5.2557626385871703E-4</v>
       </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="12"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="5"/>
-      <c r="J91" s="22">
+      <c r="J91" s="16">
         <f>LN(O80 / $B$5)</f>
         <v>2.2750208435502725E-2</v>
       </c>
-      <c r="K91" s="22">
+      <c r="K91" s="16">
         <f>J91^2</f>
         <v>5.1757198385881937E-4</v>
       </c>
-      <c r="L91" s="11"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="12"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="3"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="7"/>
-      <c r="Y91" s="32">
-        <f>Y90+$X$10</f>
+      <c r="Y91" s="23">
+        <f t="shared" si="6"/>
         <v>1.0809999999999911</v>
       </c>
       <c r="Z91" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A92" s="22">
+      <c r="A92" s="16">
         <f>LN(F81 / $B$5)</f>
         <v>4.3325880512575798E-2</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B92" s="16">
         <f>A92^2</f>
         <v>1.8771319221899954E-3</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="12"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="5"/>
-      <c r="J92" s="22">
+      <c r="J92" s="16">
         <f>LN(O81 / $B$5)</f>
         <v>4.3653426729087424E-2</v>
       </c>
-      <c r="K92" s="22">
+      <c r="K92" s="16">
         <f>J92^2</f>
         <v>1.9056216651918043E-3</v>
       </c>
-      <c r="L92" s="11"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="12"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="3"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="7"/>
-      <c r="Y92" s="32">
-        <f>Y91+$X$10</f>
+      <c r="Y92" s="23">
+        <f t="shared" si="6"/>
         <v>1.081999999999991</v>
       </c>
       <c r="Z92" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
@@ -9477,293 +9397,293 @@
       <c r="H93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="7"/>
-      <c r="Y93" s="32">
-        <f>Y92+$X$10</f>
+      <c r="Y93" s="23">
+        <f t="shared" si="6"/>
         <v>1.0829999999999909</v>
       </c>
       <c r="Z93" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18" t="s">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F94" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H94" s="5"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18" t="s">
+      <c r="J94" s="12"/>
+      <c r="K94" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L94" s="18" t="s">
+      <c r="L94" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M94" s="18" t="s">
+      <c r="M94" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N94" s="18" t="s">
+      <c r="N94" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O94" s="18" t="s">
+      <c r="O94" s="12" t="s">
         <v>38</v>
       </c>
       <c r="Q94" s="5"/>
       <c r="R94" s="7"/>
-      <c r="Y94" s="32">
-        <f>Y93+$X$10</f>
+      <c r="Y94" s="23">
+        <f t="shared" si="6"/>
         <v>1.0839999999999907</v>
       </c>
       <c r="Z94" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="17">
         <f>$F$3</f>
         <v>1.05</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="13">
         <f>E87 + E88*LN(B95/$B$5) + E89*LN(B95/$B$5)^2</f>
         <v>7.0601920890236064E-2</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="18">
         <f>1 / (C95 * SQRT($B$2)) * (LN($B$1/B95) + ($B$3-$B$4 + C95^2/2)*$B$2)</f>
         <v>0.65838331069461986</v>
       </c>
-      <c r="E95" s="24">
+      <c r="E95" s="18">
         <f>1 / (C95 * SQRT($B$2)) * (LN($B$1/B95) + ($B$3-$B$4 - C95^2/2)*$B$2)</f>
         <v>0.62308235024950176</v>
       </c>
-      <c r="F95" s="26">
+      <c r="F95" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D95,0,1,1) - B95*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E95, 0, 1, 1)) * $F$2</f>
         <v>29562.31030508205</v>
       </c>
       <c r="H95" s="5"/>
-      <c r="J95" s="18" t="s">
+      <c r="J95" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K95" s="23">
+      <c r="K95" s="17">
         <f>$F$3</f>
         <v>1.05</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="13">
         <f>N87 + N88*LN(K95/$B$5) + N89*LN(K95/$B$5)^2</f>
         <v>7.0537381847862249E-2</v>
       </c>
-      <c r="M95" s="24">
+      <c r="M95" s="18">
         <f>1 / (L95 * SQRT($B$2)) * (LN($B$1/K95) + ($B$3-$B$4 + L95^2/2)*$B$2)</f>
         <v>0.65895342229323084</v>
       </c>
-      <c r="N95" s="24">
+      <c r="N95" s="18">
         <f>1 / (L95 * SQRT($B$2)) * (LN($B$1/K95) + ($B$3-$B$4 - L95^2/2)*$B$2)</f>
         <v>0.62368473136929981</v>
       </c>
-      <c r="O95" s="26">
+      <c r="O95" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M95,0,1,1) - K95*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N95, 0, 1, 1)) * $F$2</f>
         <v>29551.318265612859</v>
       </c>
       <c r="Q95" s="5"/>
       <c r="R95" s="7"/>
-      <c r="Y95" s="32">
-        <f>Y94+$X$10</f>
+      <c r="Y95" s="23">
+        <f t="shared" si="6"/>
         <v>1.0849999999999906</v>
       </c>
       <c r="Z95" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="17">
         <f>$F$3 + $F$13</f>
         <v>1.0501</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="13">
         <f>E87 + E88*LN(B96/$B$5) + E89*LN(B96/$B$5)^2</f>
         <v>7.0586952528137778E-2</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="18">
         <f>1 / (C96 * SQRT($B$2)) * (LN($B$1/B96) + ($B$3-$B$4 + C96^2/2)*$B$2)</f>
         <v>0.65581710637468749</v>
       </c>
-      <c r="E96" s="24">
+      <c r="E96" s="18">
         <f>1 / (C96 * SQRT($B$2)) * (LN($B$1/B96) + ($B$3-$B$4 - C96^2/2)*$B$2)</f>
         <v>0.62052363011061862</v>
       </c>
-      <c r="F96" s="26">
+      <c r="F96" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D96,0,1,1) - B96*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E96, 0, 1, 1)) * $F$2</f>
         <v>29487.372398011248</v>
       </c>
       <c r="H96" s="5"/>
-      <c r="J96" s="18" t="s">
+      <c r="J96" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K96" s="23">
+      <c r="K96" s="17">
         <f>$F$3 + $F$13</f>
         <v>1.0501</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="13">
         <f>N87 + N88*LN(K96/$B$5) + N89*LN(K96/$B$5)^2</f>
         <v>7.0522761127193467E-2</v>
       </c>
-      <c r="M96" s="24">
+      <c r="M96" s="18">
         <f>1 / (L96 * SQRT($B$2)) * (LN($B$1/K96) + ($B$3-$B$4 + L96^2/2)*$B$2)</f>
         <v>0.65638193552534974</v>
       </c>
-      <c r="N96" s="24">
+      <c r="N96" s="18">
         <f>1 / (L96 * SQRT($B$2)) * (LN($B$1/K96) + ($B$3-$B$4 - L96^2/2)*$B$2)</f>
         <v>0.62112055496175311</v>
       </c>
-      <c r="O96" s="26">
+      <c r="O96" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M96,0,1,1) - K96*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N96, 0, 1, 1)) * $F$2</f>
         <v>29476.421089429718</v>
       </c>
       <c r="Q96" s="5"/>
       <c r="R96" s="7"/>
-      <c r="Y96" s="32">
-        <f>Y95+$X$10</f>
+      <c r="Y96" s="23">
+        <f t="shared" si="6"/>
         <v>1.0859999999999905</v>
       </c>
       <c r="Z96" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="23">
+      <c r="B97" s="17">
         <f>$F$4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C97" s="19">
+      <c r="C97" s="13">
         <f>E87 + E88*LN(B97/$B$5) + E89*LN(B97/$B$5)^2</f>
         <v>6.669969436394689E-2</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="18">
         <f>1 / (C97 * SQRT($B$2)) * (LN($B$1/B97) + ($B$3-$B$4 + C97^2/2)*$B$2)</f>
         <v>-0.7000159565828088</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="18">
         <f>1 / (C97 * SQRT($B$2)) * (LN($B$1/B97) + ($B$3-$B$4 - C97^2/2)*$B$2)</f>
         <v>-0.73336580376478222</v>
       </c>
-      <c r="F97" s="26">
+      <c r="F97" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D97,0,1,1) - B97*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E97, 0, 1, 1)) * $F$2</f>
         <v>4971.4822992651398</v>
       </c>
       <c r="H97" s="5"/>
-      <c r="J97" s="18" t="s">
+      <c r="J97" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K97" s="23">
+      <c r="K97" s="17">
         <f>$F$4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L97" s="19">
+      <c r="L97" s="13">
         <f>N87 + N88*LN(K97/$B$5) + N89*LN(K97/$B$5)^2</f>
         <v>6.679590732706743E-2</v>
       </c>
-      <c r="M97" s="24">
+      <c r="M97" s="18">
         <f>1 / (L97 * SQRT($B$2)) * (LN($B$1/K97) + ($B$3-$B$4 + L97^2/2)*$B$2)</f>
         <v>-0.69895958031532957</v>
       </c>
-      <c r="N97" s="24">
+      <c r="N97" s="18">
         <f>1 / (L97 * SQRT($B$2)) * (LN($B$1/K97) + ($B$3-$B$4 - L97^2/2)*$B$2)</f>
         <v>-0.73235753397886327</v>
       </c>
-      <c r="O97" s="26">
+      <c r="O97" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M97,0,1,1) - K97*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N97, 0, 1, 1)) * $F$2</f>
         <v>4987.4209275649891</v>
       </c>
       <c r="Q97" s="5"/>
       <c r="R97" s="7"/>
-      <c r="Y97" s="32">
-        <f>Y96+$X$10</f>
+      <c r="Y97" s="23">
+        <f t="shared" si="6"/>
         <v>1.0869999999999904</v>
       </c>
       <c r="Z97" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B98" s="23">
+      <c r="B98" s="17">
         <f>$F$4+$F$13</f>
         <v>1.1001000000000001</v>
       </c>
-      <c r="C98" s="19">
+      <c r="C98" s="13">
         <f>E87 + E88*LN(B98/$B$5) + E89*LN(B98/$B$5)^2</f>
         <v>6.669875837590028E-2</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="18">
         <f>1 / (C98 * SQRT($B$2)) * (LN($B$1/B98) + ($B$3-$B$4 + C98^2/2)*$B$2)</f>
         <v>-0.70275208456640237</v>
       </c>
-      <c r="E98" s="24">
+      <c r="E98" s="18">
         <f>1 / (C98 * SQRT($B$2)) * (LN($B$1/B98) + ($B$3-$B$4 - C98^2/2)*$B$2)</f>
         <v>-0.73610146375435237</v>
       </c>
-      <c r="F98" s="26">
+      <c r="F98" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D98,0,1,1) - B98*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E98, 0, 1, 1)) * $F$2</f>
         <v>4948.4896208078499</v>
       </c>
       <c r="H98" s="5"/>
-      <c r="J98" s="18" t="s">
+      <c r="J98" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="23">
+      <c r="K98" s="17">
         <f>$F$4+$F$13</f>
         <v>1.1001000000000001</v>
       </c>
-      <c r="L98" s="19">
+      <c r="L98" s="13">
         <f>N87 + N88*LN(K98/$B$5) + N89*LN(K98/$B$5)^2</f>
         <v>6.6795267680077278E-2</v>
       </c>
-      <c r="M98" s="24">
+      <c r="M98" s="18">
         <f>1 / (L98 * SQRT($B$2)) * (LN($B$1/K98) + ($B$3-$B$4 + L98^2/2)*$B$2)</f>
         <v>-0.7016884917244316</v>
       </c>
-      <c r="N98" s="24">
+      <c r="N98" s="18">
         <f>1 / (L98 * SQRT($B$2)) * (LN($B$1/K98) + ($B$3-$B$4 - L98^2/2)*$B$2)</f>
         <v>-0.73508612556447017</v>
       </c>
-      <c r="O98" s="26">
+      <c r="O98" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M98,0,1,1) - K98*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N98, 0, 1, 1)) * $F$2</f>
         <v>4964.4467522269588</v>
       </c>
       <c r="Q98" s="5"/>
       <c r="R98" s="7"/>
-      <c r="Y98" s="32">
-        <f>Y97+$X$10</f>
+      <c r="Y98" s="23">
+        <f t="shared" si="6"/>
         <v>1.0879999999999903</v>
       </c>
       <c r="Z98" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
@@ -9771,78 +9691,78 @@
       <c r="H99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="7"/>
-      <c r="Y99" s="32">
-        <f>Y98+$X$10</f>
+      <c r="Y99" s="23">
+        <f t="shared" si="6"/>
         <v>1.0889999999999902</v>
       </c>
       <c r="Z99" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B100" s="19">
         <f>(F95 - F96) / $F$13</f>
         <v>749379.07070801884</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="26">
+      <c r="D100" s="19">
         <f>(F97 - F98) / $F$13</f>
         <v>229926.78457289911</v>
       </c>
-      <c r="E100" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="26">
+      <c r="E100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="19">
         <f>B100-D100</f>
         <v>519452.28613511974</v>
       </c>
       <c r="H100" s="5"/>
-      <c r="J100" s="18" t="s">
+      <c r="J100" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K100" s="26">
+      <c r="K100" s="19">
         <f>(O95 - O96) / $F$13</f>
         <v>748971.7618314171</v>
       </c>
-      <c r="L100" s="18" t="s">
+      <c r="L100" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M100" s="26">
+      <c r="M100" s="19">
         <f>(O97 - O98) / $F$13</f>
         <v>229741.75338030362</v>
       </c>
-      <c r="N100" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O100" s="26">
+      <c r="N100" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O100" s="19">
         <f>K100-M100</f>
         <v>519230.00845111348</v>
       </c>
       <c r="Q100" s="5"/>
       <c r="R100" s="7"/>
-      <c r="Y100" s="32">
-        <f>Y99+$X$10</f>
+      <c r="Y100" s="23">
+        <f t="shared" si="6"/>
         <v>1.0899999999999901</v>
       </c>
       <c r="Z100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N101" s="15"/>
-      <c r="Y101" s="32">
-        <f>Y100+$X$10</f>
+      <c r="N101" s="11"/>
+      <c r="Y101" s="23">
+        <f t="shared" si="6"/>
         <v>1.09099999999999</v>
       </c>
       <c r="Z101" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
@@ -9868,827 +9788,800 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="Y102" s="32">
-        <f>Y101+$X$10</f>
+      <c r="Y102" s="23">
+        <f t="shared" si="6"/>
         <v>1.0919999999999899</v>
       </c>
       <c r="Z102" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Y103" s="32">
-        <f>Y102+$X$10</f>
+      <c r="Y103" s="23">
+        <f t="shared" si="6"/>
         <v>1.0929999999999898</v>
       </c>
       <c r="Z103" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17" t="s">
+      <c r="B104" s="31"/>
+      <c r="C104" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17" t="s">
+      <c r="D104" s="31"/>
+      <c r="E104" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="33"/>
-      <c r="J104" s="17" t="s">
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="J104" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17" t="s">
+      <c r="K104" s="31"/>
+      <c r="L104" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17" t="s">
+      <c r="M104" s="31"/>
+      <c r="N104" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="10"/>
-      <c r="R104" s="10"/>
-      <c r="Y104" s="32">
-        <f>Y103+$X$10</f>
+      <c r="O104" s="31"/>
+      <c r="P104" s="31"/>
+      <c r="Q104" s="32"/>
+      <c r="R104" s="32"/>
+      <c r="Y104" s="23">
+        <f t="shared" si="6"/>
         <v>1.0939999999999896</v>
       </c>
       <c r="Z104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J105" s="18" t="s">
+      <c r="J105" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K105" s="18" t="s">
+      <c r="K105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L105" s="18" t="s">
+      <c r="L105" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M105" s="18" t="s">
+      <c r="M105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N105" s="18" t="s">
+      <c r="N105" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O105" s="18" t="s">
+      <c r="O105" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P105" s="18" t="s">
+      <c r="P105" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Y105" s="32">
-        <f>Y104+$X$10</f>
+      <c r="Y105" s="23">
+        <f t="shared" si="6"/>
         <v>1.0949999999999895</v>
       </c>
       <c r="Z105" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="27">
+      <c r="B106" s="20">
         <f>$B$19</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="13">
         <f>B106 + B110 - B108/2</f>
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="14">
         <v>0.9</v>
       </c>
-      <c r="F106" s="21">
+      <c r="F106" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E106 * EXP($B$4*$B$2), 0, 1) * D106 * SQRT($B$2) - ($B$3 - $B$4 + D106^2/2)*$B$2)</f>
         <v>1.0219034021510571</v>
       </c>
-      <c r="G106" s="22">
-        <f t="shared" ref="G106:G108" si="6">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D106*SQRT($B$2)) * (LN($B$1 / F106) + ($B$3 - $B$4 + D106^2/2)*$B$2), 0, 1, 1)</f>
+      <c r="G106" s="16">
+        <f t="shared" ref="G106:G108" si="10">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D106*SQRT($B$2)) * (LN($B$1 / F106) + ($B$3 - $B$4 + D106^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.90000000000000036</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="J106" s="18" t="s">
+      <c r="J106" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K106" s="27">
+      <c r="K106" s="20">
         <f>$B$19</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="L106" s="18" t="s">
+      <c r="L106" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M106" s="19">
+      <c r="M106" s="13">
         <f>K106 + K110 - K108/2</f>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="N106" s="20">
+      <c r="N106" s="14">
         <v>0.9</v>
       </c>
-      <c r="O106" s="21">
+      <c r="O106" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N106 * EXP($B$4*$B$2), 0, 1) * M106 * SQRT($B$2) - ($B$3 - $B$4 + M106^2/2)*$B$2)</f>
         <v>1.021244618940542</v>
       </c>
-      <c r="P106" s="22">
-        <f t="shared" ref="P106:P108" si="7">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M106*SQRT($B$2)) * (LN($B$1 / O106) + ($B$3 - $B$4 + M106^2/2)*$B$2), 0, 1, 1)</f>
+      <c r="P106" s="16">
+        <f t="shared" ref="P106:P108" si="11">EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M106*SQRT($B$2)) * (LN($B$1 / O106) + ($B$3 - $B$4 + M106^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.90000000000000047</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
-      <c r="Y106" s="32">
-        <f>Y105+$X$10</f>
+      <c r="Y106" s="23">
+        <f t="shared" si="6"/>
         <v>1.0959999999999894</v>
       </c>
       <c r="Z106" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B107" s="27">
+      <c r="B107" s="20">
         <f>$B$20</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="19">
+      <c r="D107" s="13">
         <f>B106+B109 - B107/2</f>
         <v>7.2500000000000009E-2</v>
       </c>
-      <c r="E107" s="20">
+      <c r="E107" s="14">
         <v>0.75</v>
       </c>
-      <c r="F107" s="21">
+      <c r="F107" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E107 * EXP($B$4*$B$2), 0, 1) * D107 * SQRT($B$2) - ($B$3 - $B$4 + D107^2/2)*$B$2)</f>
         <v>1.0479733617665279</v>
       </c>
-      <c r="G107" s="22">
-        <f t="shared" si="6"/>
+      <c r="G107" s="16">
+        <f t="shared" si="10"/>
         <v>0.75000000000000067</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="J107" s="18" t="s">
+      <c r="J107" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K107" s="27">
+      <c r="K107" s="20">
         <f>$B$20</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="L107" s="18" t="s">
+      <c r="L107" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M107" s="19">
+      <c r="M107" s="13">
         <f>K106+K109 - K107/2</f>
         <v>7.1500000000000008E-2</v>
       </c>
-      <c r="N107" s="20">
+      <c r="N107" s="14">
         <v>0.75</v>
       </c>
-      <c r="O107" s="21">
+      <c r="O107" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N107 * EXP($B$4*$B$2), 0, 1) * M107 * SQRT($B$2) - ($B$3 - $B$4 + M107^2/2)*$B$2)</f>
         <v>1.0483189248819247</v>
       </c>
-      <c r="P107" s="22">
-        <f t="shared" si="7"/>
+      <c r="P107" s="16">
+        <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
-      <c r="Y107" s="32">
-        <f>Y106+$X$10</f>
+      <c r="Y107" s="23">
+        <f t="shared" si="6"/>
         <v>1.0969999999999893</v>
       </c>
       <c r="Z107" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="27">
+      <c r="B108" s="20">
         <f>$B$21</f>
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D108" s="13">
         <f>B106</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="14">
         <v>0.5</v>
       </c>
-      <c r="F108" s="21">
+      <c r="F108" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E108 * EXP($B$4*$B$2), 0, 1) * D108 * SQRT($B$2) - ($B$3 - $B$4 + D108^2/2)*$B$2)</f>
         <v>1.0742324739661566</v>
       </c>
-      <c r="G108" s="22">
-        <f t="shared" si="6"/>
+      <c r="G108" s="16">
+        <f t="shared" si="10"/>
         <v>0.50000000000000078</v>
       </c>
       <c r="H108" s="3"/>
-      <c r="J108" s="18" t="s">
+      <c r="J108" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K108" s="27">
+      <c r="K108" s="20">
         <f>$B$21</f>
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="L108" s="18" t="s">
+      <c r="L108" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="M108" s="19">
+      <c r="M108" s="13">
         <f>K106</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="N108" s="20">
+      <c r="N108" s="14">
         <v>0.5</v>
       </c>
-      <c r="O108" s="21">
+      <c r="O108" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N108 * EXP($B$4*$B$2), 0, 1) * M108 * SQRT($B$2) - ($B$3 - $B$4 + M108^2/2)*$B$2)</f>
         <v>1.0742324739661566</v>
       </c>
-      <c r="P108" s="22">
-        <f t="shared" si="7"/>
+      <c r="P108" s="16">
+        <f t="shared" si="11"/>
         <v>0.50000000000000078</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
-      <c r="Y108" s="32">
-        <f>Y107+$X$10</f>
+      <c r="Y108" s="23">
+        <f t="shared" si="6"/>
         <v>1.0979999999999892</v>
       </c>
       <c r="Z108" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="19">
+      <c r="B109" s="13">
         <f>$B$22+$F$12</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="19">
+      <c r="D109" s="13">
         <f>B106 + B109 + B107/2</f>
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E109" s="14">
         <v>0.25</v>
       </c>
-      <c r="F109" s="21">
+      <c r="F109" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E109 * EXP($B$4*$B$2), 0, 1) * D109 * SQRT($B$2) - ($B$3 - $B$4 + D109^2/2)*$B$2)</f>
         <v>1.099119497892739</v>
       </c>
-      <c r="G109" s="22">
+      <c r="G109" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D109*SQRT($B$2)) * (LN($B$1 / F109) + ($B$3 - $B$4 + D109^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.25000000000000033</v>
       </c>
       <c r="H109" s="3"/>
-      <c r="J109" s="18" t="s">
+      <c r="J109" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K109" s="27">
+      <c r="K109" s="20">
         <f>$B$22</f>
         <v>1.5E-3</v>
       </c>
-      <c r="L109" s="18" t="s">
+      <c r="L109" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M109" s="19">
+      <c r="M109" s="13">
         <f>K106 + K109 + K107/2</f>
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="N109" s="20">
+      <c r="N109" s="14">
         <v>0.25</v>
       </c>
-      <c r="O109" s="21">
+      <c r="O109" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N109 * EXP($B$4*$B$2), 0, 1) * M109 * SQRT($B$2) - ($B$3 - $B$4 + M109^2/2)*$B$2)</f>
         <v>1.0987342735852066</v>
       </c>
-      <c r="P109" s="22">
+      <c r="P109" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M109*SQRT($B$2)) * (LN($B$1 / O109) + ($B$3 - $B$4 + M109^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.25000000000000033</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
-      <c r="Y109" s="32">
-        <f>Y108+$X$10</f>
+      <c r="Y109" s="23">
+        <f t="shared" si="6"/>
         <v>1.0989999999999891</v>
       </c>
       <c r="Z109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="27">
+      <c r="B110" s="20">
         <f>$B$23</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="19">
+      <c r="D110" s="13">
         <f>B106 + B110 + B108/2</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E110" s="14">
         <v>0.1</v>
       </c>
-      <c r="F110" s="21">
+      <c r="F110" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(E110 * EXP($B$4*$B$2), 0, 1) * D110 * SQRT($B$2) - ($B$3 - $B$4 + D110^2/2)*$B$2)</f>
         <v>1.1215756522217628</v>
       </c>
-      <c r="G110" s="22">
+      <c r="G110" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(D110*SQRT($B$2)) * (LN($B$1 / F110) + ($B$3 - $B$4 + D110^2/2)*$B$2), 0, 1, 1)</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="H110" s="3"/>
-      <c r="J110" s="18" t="s">
+      <c r="J110" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="19">
+      <c r="K110" s="13">
         <f>$B$23+$F$12</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L110" s="18" t="s">
+      <c r="L110" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M110" s="19">
+      <c r="M110" s="13">
         <f>K106 + K110 + K108/2</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="N110" s="20">
+      <c r="N110" s="14">
         <v>0.1</v>
       </c>
-      <c r="O110" s="21">
+      <c r="O110" s="15">
         <f>$B$1 / EXP(_xlfn.NORM.INV(N110 * EXP($B$4*$B$2), 0, 1) * M110 * SQRT($B$2) - ($B$3 - $B$4 + M110^2/2)*$B$2)</f>
         <v>1.1223106988014795</v>
       </c>
-      <c r="P110" s="22">
+      <c r="P110" s="16">
         <f>EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(1/(M110*SQRT($B$2)) * (LN($B$1 / O110) + ($B$3 - $B$4 + M110^2/2)*$B$2), 0, 1, 1)</f>
         <v>9.9999999999999353E-2</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
-      <c r="Y110" s="32">
-        <f>Y109+$X$10</f>
+      <c r="Y110" s="23">
+        <f t="shared" si="6"/>
         <v>1.099999999999989</v>
       </c>
       <c r="Z110" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="12"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="12"/>
-      <c r="Y111" s="32">
-        <f>Y110+$X$10</f>
+      <c r="B111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="3"/>
+      <c r="Y111" s="23">
+        <f t="shared" si="6"/>
         <v>1.1009999999999889</v>
       </c>
       <c r="Z111" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A112" s="25" t="s">
+      <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="12"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="12"/>
-      <c r="J112" s="25" t="s">
+      <c r="B112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="3"/>
+      <c r="J112" t="s">
         <v>57</v>
       </c>
-      <c r="K112" s="12"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="12"/>
-      <c r="Y112" s="32">
-        <f>Y111+$X$10</f>
+      <c r="K112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="3"/>
+      <c r="Y112" s="23">
+        <f t="shared" si="6"/>
         <v>1.1019999999999888</v>
       </c>
       <c r="Z112" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A113" s="11" t="s">
+      <c r="A113" t="s">
         <v>54</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="12"/>
+      <c r="B113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="5"/>
-      <c r="J113" s="11" t="s">
+      <c r="J113" t="s">
         <v>54</v>
       </c>
-      <c r="K113" s="12"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="12"/>
+      <c r="K113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="3"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="7"/>
-      <c r="Y113" s="32">
-        <f>Y112+$X$10</f>
+      <c r="Y113" s="23">
+        <f t="shared" si="6"/>
         <v>1.1029999999999887</v>
       </c>
       <c r="Z113" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="12"/>
+      <c r="B114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="5"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="11"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="12"/>
+      <c r="K114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="3"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="7"/>
-      <c r="Y114" s="32">
-        <f>Y113+$X$10</f>
+      <c r="Y114" s="23">
+        <f t="shared" si="6"/>
         <v>1.1039999999999885</v>
       </c>
       <c r="Z114" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="11"/>
+      <c r="B115" s="31"/>
       <c r="D115" t="s">
         <v>58</v>
       </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="12"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="5"/>
-      <c r="J115" s="17" t="s">
+      <c r="J115" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K115" s="17"/>
-      <c r="L115" s="11"/>
+      <c r="K115" s="31"/>
       <c r="M115" t="s">
         <v>58</v>
       </c>
-      <c r="O115" s="14"/>
-      <c r="P115" s="12"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="3"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="7"/>
-      <c r="Y115" s="32">
-        <f>Y114+$X$10</f>
+      <c r="Y115" s="23">
+        <f t="shared" si="6"/>
         <v>1.1049999999999884</v>
       </c>
       <c r="Z115" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="22">
+      <c r="E116" s="16">
         <f>INDEX(LINEST(D106:D110, A117:B121, 1, 0), 3)</f>
         <v>6.8529482251158971E-2</v>
       </c>
-      <c r="F116" s="14"/>
-      <c r="G116" s="12"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="5"/>
-      <c r="J116" s="18" t="s">
+      <c r="J116" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K116" s="18" t="s">
+      <c r="K116" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L116" s="11"/>
-      <c r="M116" s="18" t="s">
+      <c r="M116" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N116" s="22">
+      <c r="N116" s="16">
         <f>INDEX(LINEST(M106:M110, J117:K121, 1, 0), 3)</f>
         <v>6.7717371384625413E-2</v>
       </c>
-      <c r="O116" s="14"/>
-      <c r="P116" s="12"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="3"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="7"/>
-      <c r="Y116" s="32">
-        <f>Y115+$X$10</f>
+      <c r="Y116" s="23">
+        <f t="shared" si="6"/>
         <v>1.1059999999999883</v>
       </c>
       <c r="Z116" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A117" s="22">
+      <c r="A117" s="16">
         <f>LN(F106 / $B$5)</f>
         <v>-4.974167960264423E-2</v>
       </c>
-      <c r="B117" s="22">
+      <c r="B117" s="16">
         <f>A117^2</f>
         <v>2.474234689692113E-3</v>
       </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E117" s="22">
+      <c r="E117" s="16">
         <f>INDEX(LINEST(D106:D110, A117:B121, 1, 0), 2)</f>
         <v>-9.1422649793880956E-2</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="12"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="5"/>
-      <c r="J117" s="22">
+      <c r="J117" s="16">
         <f>LN(O106 / $B$5)</f>
         <v>-5.0386550386889488E-2</v>
       </c>
-      <c r="K117" s="22">
+      <c r="K117" s="16">
         <f>J117^2</f>
         <v>2.5388044598905531E-3</v>
       </c>
-      <c r="L117" s="11"/>
-      <c r="M117" s="18" t="s">
+      <c r="M117" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N117" s="22">
+      <c r="N117" s="16">
         <f>INDEX(LINEST(M106:M110, J117:K121, 1, 0), 2)</f>
         <v>-8.6658312670177345E-2</v>
       </c>
-      <c r="O117" s="14"/>
-      <c r="P117" s="12"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="3"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="7"/>
-      <c r="Y117" s="32">
-        <f>Y116+$X$10</f>
+      <c r="Y117" s="23">
+        <f t="shared" si="6"/>
         <v>1.1069999999999882</v>
       </c>
       <c r="Z117" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A118" s="22">
+      <c r="A118" s="16">
         <f>LN(F107 / $B$5)</f>
         <v>-2.4550481059721338E-2</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B118" s="16">
         <f>A118^2</f>
         <v>6.0272612026373619E-4</v>
       </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E118" s="22">
+      <c r="E118" s="16">
         <f>INDEX(LINEST(D106:D110, A117:B121, 1, 0), 1)</f>
         <v>1.3031840635849987</v>
       </c>
-      <c r="F118" s="14"/>
-      <c r="G118" s="12"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="5"/>
-      <c r="J118" s="22">
+      <c r="J118" s="16">
         <f>LN(O107 / $B$5)</f>
         <v>-2.4220791234759571E-2</v>
       </c>
-      <c r="K118" s="22">
+      <c r="K118" s="16">
         <f>J118^2</f>
         <v>5.8664672803780606E-4</v>
       </c>
-      <c r="L118" s="11"/>
-      <c r="M118" s="18" t="s">
+      <c r="M118" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N118" s="22">
+      <c r="N118" s="16">
         <f>INDEX(LINEST(M106:M110, J117:K121, 1, 0), 1)</f>
         <v>2.0166682719706097</v>
       </c>
-      <c r="O118" s="14"/>
-      <c r="P118" s="12"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="3"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="7"/>
-      <c r="Y118" s="32">
-        <f>Y117+$X$10</f>
+      <c r="Y118" s="23">
+        <f t="shared" si="6"/>
         <v>1.1079999999999881</v>
       </c>
       <c r="Z118" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A119" s="22">
+      <c r="A119" s="16">
         <f>LN(F108 / $B$5)</f>
         <v>1.9778039644311973E-4</v>
       </c>
-      <c r="B119" s="22">
+      <c r="B119" s="16">
         <f>A119^2</f>
         <v>3.9117085217197607E-8</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="12"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="5"/>
-      <c r="J119" s="22">
+      <c r="J119" s="16">
         <f>LN(O108 / $B$5)</f>
         <v>1.9778039644311973E-4</v>
       </c>
-      <c r="K119" s="22">
+      <c r="K119" s="16">
         <f>J119^2</f>
         <v>3.9117085217197607E-8</v>
       </c>
-      <c r="L119" s="11"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="12"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="3"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="7"/>
-      <c r="Y119" s="32">
-        <f>Y118+$X$10</f>
+      <c r="Y119" s="23">
+        <f t="shared" si="6"/>
         <v>1.108999999999988</v>
       </c>
       <c r="Z119" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A120" s="22">
+      <c r="A120" s="16">
         <f>LN(F109 / $B$5)</f>
         <v>2.3100754333028922E-2</v>
       </c>
-      <c r="B120" s="22">
+      <c r="B120" s="16">
         <f>A120^2</f>
         <v>5.3364485075495444E-4</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="12"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="3"/>
       <c r="H120" s="5"/>
-      <c r="J120" s="22">
+      <c r="J120" s="16">
         <f>LN(O109 / $B$5)</f>
         <v>2.2750208435502725E-2</v>
       </c>
-      <c r="K120" s="22">
+      <c r="K120" s="16">
         <f>J120^2</f>
         <v>5.1757198385881937E-4</v>
       </c>
-      <c r="L120" s="11"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="12"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="3"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="7"/>
-      <c r="Y120" s="32">
-        <f>Y119+$X$10</f>
+      <c r="Y120" s="23">
+        <f t="shared" si="6"/>
         <v>1.1099999999999879</v>
       </c>
       <c r="Z120" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A121" s="22">
+      <c r="A121" s="16">
         <f>LN(F110 / $B$5)</f>
         <v>4.3325880512575798E-2</v>
       </c>
-      <c r="B121" s="22">
+      <c r="B121" s="16">
         <f>A121^2</f>
         <v>1.8771319221899954E-3</v>
       </c>
-      <c r="C121" s="11"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="12"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="5"/>
-      <c r="J121" s="22">
+      <c r="J121" s="16">
         <f>LN(O110 / $B$5)</f>
         <v>4.3981035445599351E-2</v>
       </c>
-      <c r="K121" s="22">
+      <c r="K121" s="16">
         <f>J121^2</f>
         <v>1.9343314788670665E-3</v>
       </c>
-      <c r="L121" s="11"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="12"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="3"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="7"/>
-      <c r="Y121" s="32">
-        <f>Y120+$X$10</f>
+      <c r="Y121" s="23">
+        <f t="shared" si="6"/>
         <v>1.1109999999999878</v>
       </c>
       <c r="Z121" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10696,293 +10589,293 @@
       <c r="H122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="7"/>
-      <c r="Y122" s="32">
-        <f>Y121+$X$10</f>
+      <c r="Y122" s="23">
+        <f t="shared" si="6"/>
         <v>1.1119999999999877</v>
       </c>
       <c r="Z122" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A123" s="18"/>
-      <c r="B123" s="18" t="s">
+      <c r="A123" s="12"/>
+      <c r="B123" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F123" s="18" t="s">
+      <c r="F123" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H123" s="5"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18" t="s">
+      <c r="J123" s="12"/>
+      <c r="K123" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L123" s="18" t="s">
+      <c r="L123" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M123" s="18" t="s">
+      <c r="M123" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N123" s="18" t="s">
+      <c r="N123" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="O123" s="18" t="s">
+      <c r="O123" s="12" t="s">
         <v>38</v>
       </c>
       <c r="Q123" s="5"/>
       <c r="R123" s="7"/>
-      <c r="Y123" s="32">
-        <f>Y122+$X$10</f>
+      <c r="Y123" s="23">
+        <f t="shared" si="6"/>
         <v>1.1129999999999876</v>
       </c>
       <c r="Z123" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="23">
+      <c r="B124" s="17">
         <f>$F$3</f>
         <v>1.05</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C124" s="13">
         <f>E116 + E117*LN(B124/$B$5) + E118*LN(B124/$B$5)^2</f>
         <v>7.1264027556142459E-2</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="18">
         <f>1 / (C124 * SQRT($B$2)) * (LN($B$1/B124) + ($B$3-$B$4 + C124^2/2)*$B$2)</f>
         <v>0.65259585529330055</v>
       </c>
-      <c r="E124" s="24">
+      <c r="E124" s="18">
         <f>1 / (C124 * SQRT($B$2)) * (LN($B$1/B124) + ($B$3-$B$4 - C124^2/2)*$B$2)</f>
         <v>0.61696384151522932</v>
       </c>
-      <c r="F124" s="26">
+      <c r="F124" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D124,0,1,1) - B124*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E124, 0, 1, 1)) * $F$2</f>
         <v>29675.314120430674</v>
       </c>
       <c r="H124" s="5"/>
-      <c r="J124" s="18" t="s">
+      <c r="J124" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K124" s="23">
+      <c r="K124" s="17">
         <f>$F$3</f>
         <v>1.05</v>
       </c>
-      <c r="L124" s="19">
+      <c r="L124" s="13">
         <f>N116 + N117*LN(K124/$B$5) + N118*LN(K124/$B$5)^2</f>
         <v>7.070917015252591E-2</v>
       </c>
-      <c r="M124" s="24">
+      <c r="M124" s="18">
         <f>1 / (L124 * SQRT($B$2)) * (LN($B$1/K124) + ($B$3-$B$4 + L124^2/2)*$B$2)</f>
         <v>0.6574382812639975</v>
       </c>
-      <c r="N124" s="24">
+      <c r="N124" s="18">
         <f>1 / (L124 * SQRT($B$2)) * (LN($B$1/K124) + ($B$3-$B$4 - L124^2/2)*$B$2)</f>
         <v>0.62208369618773462</v>
       </c>
-      <c r="O124" s="26">
+      <c r="O124" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M124,0,1,1) - K124*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N124, 0, 1, 1)) * $F$2</f>
         <v>29580.585696927119</v>
       </c>
       <c r="Q124" s="5"/>
       <c r="R124" s="7"/>
-      <c r="Y124" s="32">
-        <f>Y123+$X$10</f>
+      <c r="Y124" s="23">
+        <f t="shared" si="6"/>
         <v>1.1139999999999874</v>
       </c>
       <c r="Z124" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B125" s="17">
         <f>$F$3 + $F$13</f>
         <v>1.0501</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C125" s="13">
         <f>E116 + E117*LN(B125/$B$5) + E118*LN(B125/$B$5)^2</f>
         <v>7.1249718652792615E-2</v>
       </c>
-      <c r="D125" s="24">
+      <c r="D125" s="18">
         <f>1 / (C125 * SQRT($B$2)) * (LN($B$1/B125) + ($B$3-$B$4 + C125^2/2)*$B$2)</f>
         <v>0.65004652601836699</v>
       </c>
-      <c r="E125" s="24">
+      <c r="E125" s="18">
         <f>1 / (C125 * SQRT($B$2)) * (LN($B$1/B125) + ($B$3-$B$4 - C125^2/2)*$B$2)</f>
         <v>0.61442166669197062</v>
       </c>
-      <c r="F125" s="26">
+      <c r="F125" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D125,0,1,1) - B125*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E125, 0, 1, 1)) * $F$2</f>
         <v>29600.678199610764</v>
       </c>
       <c r="H125" s="5"/>
-      <c r="J125" s="18" t="s">
+      <c r="J125" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K125" s="23">
+      <c r="K125" s="17">
         <f>$F$3 + $F$13</f>
         <v>1.0501</v>
       </c>
-      <c r="L125" s="19">
+      <c r="L125" s="13">
         <f>N116 + N117*LN(K125/$B$5) + N118*LN(K125/$B$5)^2</f>
         <v>7.069224769953622E-2</v>
       </c>
-      <c r="M125" s="24">
+      <c r="M125" s="18">
         <f>1 / (L125 * SQRT($B$2)) * (LN($B$1/K125) + ($B$3-$B$4 + L125^2/2)*$B$2)</f>
         <v>0.65489288381355604</v>
       </c>
-      <c r="N125" s="24">
+      <c r="N125" s="18">
         <f>1 / (L125 * SQRT($B$2)) * (LN($B$1/K125) + ($B$3-$B$4 - L125^2/2)*$B$2)</f>
         <v>0.61954675996378794</v>
       </c>
-      <c r="O125" s="26">
+      <c r="O125" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M125,0,1,1) - K125*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N125, 0, 1, 1)) * $F$2</f>
         <v>29505.344947164504</v>
       </c>
       <c r="Q125" s="5"/>
       <c r="R125" s="7"/>
-      <c r="Y125" s="32">
-        <f>Y124+$X$10</f>
+      <c r="Y125" s="23">
+        <f t="shared" si="6"/>
         <v>1.1149999999999873</v>
       </c>
       <c r="Z125" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="17">
         <f>$F$4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="C126" s="19">
+      <c r="C126" s="13">
         <f>E116 + E117*LN(B126/$B$5) + E118*LN(B126/$B$5)^2</f>
         <v>6.7088828084752292E-2</v>
       </c>
-      <c r="D126" s="24">
+      <c r="D126" s="18">
         <f>1 / (C126 * SQRT($B$2)) * (LN($B$1/B126) + ($B$3-$B$4 + C126^2/2)*$B$2)</f>
         <v>-0.69576166822598962</v>
       </c>
-      <c r="E126" s="24">
+      <c r="E126" s="18">
         <f>1 / (C126 * SQRT($B$2)) * (LN($B$1/B126) + ($B$3-$B$4 - C126^2/2)*$B$2)</f>
         <v>-0.72930608226836591</v>
       </c>
-      <c r="F126" s="26">
+      <c r="F126" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D126,0,1,1) - B126*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E126, 0, 1, 1)) * $F$2</f>
         <v>5036.018350606686</v>
       </c>
       <c r="H126" s="5"/>
-      <c r="J126" s="18" t="s">
+      <c r="J126" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K126" s="23">
+      <c r="K126" s="17">
         <f>$F$4</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L126" s="19">
+      <c r="L126" s="13">
         <f>N116 + N117*LN(K126/$B$5) + N118*LN(K126/$B$5)^2</f>
         <v>6.6798193712925641E-2</v>
       </c>
-      <c r="M126" s="24">
+      <c r="M126" s="18">
         <f>1 / (L126 * SQRT($B$2)) * (LN($B$1/K126) + ($B$3-$B$4 + L126^2/2)*$B$2)</f>
         <v>-0.69893451297259679</v>
       </c>
-      <c r="N126" s="24">
+      <c r="N126" s="18">
         <f>1 / (L126 * SQRT($B$2)) * (LN($B$1/K126) + ($B$3-$B$4 - L126^2/2)*$B$2)</f>
         <v>-0.7323336098290596</v>
       </c>
-      <c r="O126" s="26">
+      <c r="O126" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M126,0,1,1) - K126*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N126, 0, 1, 1)) * $F$2</f>
         <v>4987.7998331544495</v>
       </c>
       <c r="Q126" s="5"/>
       <c r="R126" s="7"/>
-      <c r="Y126" s="32">
-        <f>Y125+$X$10</f>
+      <c r="Y126" s="23">
+        <f t="shared" si="6"/>
         <v>1.1159999999999872</v>
       </c>
       <c r="Z126" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B127" s="23">
+      <c r="B127" s="17">
         <f>$F$4+$F$13</f>
         <v>1.1001000000000001</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C127" s="13">
         <f>E116 + E117*LN(B127/$B$5) + E118*LN(B127/$B$5)^2</f>
         <v>6.7086191114208257E-2</v>
       </c>
-      <c r="D127" s="24">
+      <c r="D127" s="18">
         <f>1 / (C127 * SQRT($B$2)) * (LN($B$1/B127) + ($B$3-$B$4 + C127^2/2)*$B$2)</f>
         <v>-0.69850042968677195</v>
       </c>
-      <c r="E127" s="24">
+      <c r="E127" s="18">
         <f>1 / (C127 * SQRT($B$2)) * (LN($B$1/B127) + ($B$3-$B$4 - C127^2/2)*$B$2)</f>
         <v>-0.73204352524387595</v>
       </c>
-      <c r="F127" s="26">
+      <c r="F127" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(D127,0,1,1) - B127*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(E127, 0, 1, 1)) * $F$2</f>
         <v>5012.6206960937616</v>
       </c>
       <c r="H127" s="5"/>
-      <c r="J127" s="18" t="s">
+      <c r="J127" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K127" s="23">
+      <c r="K127" s="17">
         <f>$F$4+$F$13</f>
         <v>1.1001000000000001</v>
       </c>
-      <c r="L127" s="19">
+      <c r="L127" s="13">
         <f>N116 + N117*LN(K127/$B$5) + N118*LN(K127/$B$5)^2</f>
         <v>6.6799096211198866E-2</v>
       </c>
-      <c r="M127" s="24">
+      <c r="M127" s="18">
         <f>1 / (L127 * SQRT($B$2)) * (LN($B$1/K127) + ($B$3-$B$4 + L127^2/2)*$B$2)</f>
         <v>-0.70164636085840482</v>
       </c>
-      <c r="N127" s="24">
+      <c r="N127" s="18">
         <f>1 / (L127 * SQRT($B$2)) * (LN($B$1/K127) + ($B$3-$B$4 - L127^2/2)*$B$2)</f>
         <v>-0.73504590896400424</v>
       </c>
-      <c r="O127" s="26">
+      <c r="O127" s="19">
         <f>($B$1*EXP(-$B$4*$B$2)*_xlfn.NORM.DIST(M127,0,1,1) - K127*EXP(-$B$3*$B$2)*_xlfn.NORM.DIST(N127, 0, 1, 1)) * $F$2</f>
         <v>4965.080018404733</v>
       </c>
       <c r="Q127" s="5"/>
       <c r="R127" s="7"/>
-      <c r="Y127" s="32">
-        <f>Y126+$X$10</f>
+      <c r="Y127" s="23">
+        <f t="shared" si="6"/>
         <v>1.1169999999999871</v>
       </c>
       <c r="Z127" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10990,2026 +10883,2026 @@
       <c r="H128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="7"/>
-      <c r="Y128" s="32">
-        <f>Y127+$X$10</f>
+      <c r="Y128" s="23">
+        <f t="shared" si="6"/>
         <v>1.117999999999987</v>
       </c>
       <c r="Z128" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B129" s="26">
+      <c r="B129" s="19">
         <f>(F124 - F125) / $F$13</f>
         <v>746359.20819910092</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="26">
+      <c r="D129" s="19">
         <f>(F126 - F127) / $F$13</f>
         <v>233976.54512924419</v>
       </c>
-      <c r="E129" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F129" s="26">
+      <c r="E129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="19">
         <f>B129-D129</f>
         <v>512382.6630698567</v>
       </c>
       <c r="H129" s="5"/>
-      <c r="J129" s="18" t="s">
+      <c r="J129" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K129" s="26">
+      <c r="K129" s="19">
         <f>(O124 - O125) / $F$13</f>
         <v>752407.49762615445</v>
       </c>
-      <c r="L129" s="18" t="s">
+      <c r="L129" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M129" s="26">
+      <c r="M129" s="19">
         <f>(O126 - O127) / $F$13</f>
         <v>227198.14749716534</v>
       </c>
-      <c r="N129" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O129" s="26">
+      <c r="N129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O129" s="19">
         <f>K129-M129</f>
         <v>525209.35012898908</v>
       </c>
       <c r="Q129" s="5"/>
       <c r="R129" s="7"/>
-      <c r="Y129" s="32">
-        <f>Y128+$X$10</f>
+      <c r="Y129" s="23">
+        <f t="shared" si="6"/>
         <v>1.1189999999999869</v>
       </c>
       <c r="Z129" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N130" s="15"/>
-      <c r="Y130" s="32">
-        <f>Y129+$X$10</f>
+      <c r="N130" s="11"/>
+      <c r="Y130" s="23">
+        <f t="shared" si="6"/>
         <v>1.1199999999999868</v>
       </c>
       <c r="Z130" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N131" s="15"/>
-      <c r="Y131" s="32">
-        <f>Y130+$X$10</f>
+      <c r="N131" s="11"/>
+      <c r="Y131" s="23">
+        <f t="shared" si="6"/>
         <v>1.1209999999999867</v>
       </c>
       <c r="Z131" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N132" s="15"/>
-      <c r="Y132" s="32">
-        <f>Y131+$X$10</f>
+      <c r="N132" s="11"/>
+      <c r="Y132" s="23">
+        <f t="shared" si="6"/>
         <v>1.1219999999999866</v>
       </c>
       <c r="Z132" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N133" s="15"/>
-      <c r="Y133" s="32">
-        <f>Y132+$X$10</f>
+      <c r="N133" s="11"/>
+      <c r="Y133" s="23">
+        <f t="shared" si="6"/>
         <v>1.1229999999999865</v>
       </c>
       <c r="Z133" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N134" s="15"/>
-      <c r="Y134" s="32">
-        <f>Y133+$X$10</f>
+      <c r="N134" s="11"/>
+      <c r="Y134" s="23">
+        <f t="shared" si="6"/>
         <v>1.1239999999999863</v>
       </c>
       <c r="Z134" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N135" s="15"/>
-      <c r="Y135" s="32">
-        <f>Y134+$X$10</f>
+      <c r="N135" s="11"/>
+      <c r="Y135" s="23">
+        <f t="shared" si="6"/>
         <v>1.1249999999999862</v>
       </c>
       <c r="Z135" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N136" s="15"/>
-      <c r="Y136" s="32">
-        <f>Y135+$X$10</f>
+      <c r="N136" s="11"/>
+      <c r="Y136" s="23">
+        <f t="shared" si="6"/>
         <v>1.1259999999999861</v>
       </c>
       <c r="Z136" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N137" s="15"/>
-      <c r="Y137" s="32">
-        <f>Y136+$X$10</f>
+      <c r="N137" s="11"/>
+      <c r="Y137" s="23">
+        <f t="shared" si="6"/>
         <v>1.126999999999986</v>
       </c>
       <c r="Z137" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N138" s="15"/>
-      <c r="Y138" s="32">
-        <f>Y137+$X$10</f>
+      <c r="N138" s="11"/>
+      <c r="Y138" s="23">
+        <f t="shared" si="6"/>
         <v>1.1279999999999859</v>
       </c>
       <c r="Z138" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N139" s="15"/>
-      <c r="Y139" s="32">
-        <f>Y138+$X$10</f>
+      <c r="N139" s="11"/>
+      <c r="Y139" s="23">
+        <f t="shared" ref="Y139:Y202" si="12">Y138+$X$10</f>
         <v>1.1289999999999858</v>
       </c>
       <c r="Z139" s="7">
-        <f t="shared" ref="Z139:Z202" si="8">IF(AND(Y139&gt;=$F$3, Y139&lt;=$F$4), $F$2, 0)</f>
+        <f t="shared" ref="Z139:Z202" si="13">IF(AND(Y139&gt;=$F$3, Y139&lt;=$F$4), $F$2, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N140" s="15"/>
-      <c r="Y140" s="32">
-        <f>Y139+$X$10</f>
+      <c r="N140" s="11"/>
+      <c r="Y140" s="23">
+        <f t="shared" si="12"/>
         <v>1.1299999999999857</v>
       </c>
       <c r="Z140" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N141" s="15"/>
-      <c r="Y141" s="32">
-        <f>Y140+$X$10</f>
+      <c r="N141" s="11"/>
+      <c r="Y141" s="23">
+        <f t="shared" si="12"/>
         <v>1.1309999999999856</v>
       </c>
       <c r="Z141" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N142" s="15"/>
-      <c r="Y142" s="32">
-        <f>Y141+$X$10</f>
+      <c r="N142" s="11"/>
+      <c r="Y142" s="23">
+        <f t="shared" si="12"/>
         <v>1.1319999999999855</v>
       </c>
       <c r="Z142" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N143" s="15"/>
-      <c r="Y143" s="32">
-        <f>Y142+$X$10</f>
+      <c r="N143" s="11"/>
+      <c r="Y143" s="23">
+        <f t="shared" si="12"/>
         <v>1.1329999999999854</v>
       </c>
       <c r="Z143" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="N144" s="15"/>
-      <c r="Y144" s="32">
-        <f>Y143+$X$10</f>
+      <c r="N144" s="11"/>
+      <c r="Y144" s="23">
+        <f t="shared" si="12"/>
         <v>1.1339999999999852</v>
       </c>
       <c r="Z144" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y145" s="32">
-        <f>Y144+$X$10</f>
+      <c r="Y145" s="23">
+        <f t="shared" si="12"/>
         <v>1.1349999999999851</v>
       </c>
       <c r="Z145" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y146" s="32">
-        <f>Y145+$X$10</f>
+      <c r="Y146" s="23">
+        <f t="shared" si="12"/>
         <v>1.135999999999985</v>
       </c>
       <c r="Z146" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y147" s="32">
-        <f>Y146+$X$10</f>
+      <c r="Y147" s="23">
+        <f t="shared" si="12"/>
         <v>1.1369999999999849</v>
       </c>
       <c r="Z147" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y148" s="32">
-        <f>Y147+$X$10</f>
+      <c r="Y148" s="23">
+        <f t="shared" si="12"/>
         <v>1.1379999999999848</v>
       </c>
       <c r="Z148" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y149" s="32">
-        <f>Y148+$X$10</f>
+      <c r="Y149" s="23">
+        <f t="shared" si="12"/>
         <v>1.1389999999999847</v>
       </c>
       <c r="Z149" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y150" s="32">
-        <f>Y149+$X$10</f>
+      <c r="Y150" s="23">
+        <f t="shared" si="12"/>
         <v>1.1399999999999846</v>
       </c>
       <c r="Z150" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y151" s="32">
-        <f>Y150+$X$10</f>
+      <c r="Y151" s="23">
+        <f t="shared" si="12"/>
         <v>1.1409999999999845</v>
       </c>
       <c r="Z151" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y152" s="32">
-        <f>Y151+$X$10</f>
+      <c r="Y152" s="23">
+        <f t="shared" si="12"/>
         <v>1.1419999999999844</v>
       </c>
       <c r="Z152" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y153" s="32">
-        <f>Y152+$X$10</f>
+      <c r="Y153" s="23">
+        <f t="shared" si="12"/>
         <v>1.1429999999999843</v>
       </c>
       <c r="Z153" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y154" s="32">
-        <f>Y153+$X$10</f>
+      <c r="Y154" s="23">
+        <f t="shared" si="12"/>
         <v>1.1439999999999841</v>
       </c>
       <c r="Z154" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y155" s="32">
-        <f>Y154+$X$10</f>
+      <c r="Y155" s="23">
+        <f t="shared" si="12"/>
         <v>1.144999999999984</v>
       </c>
       <c r="Z155" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y156" s="32">
-        <f>Y155+$X$10</f>
+      <c r="Y156" s="23">
+        <f t="shared" si="12"/>
         <v>1.1459999999999839</v>
       </c>
       <c r="Z156" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y157" s="32">
-        <f>Y156+$X$10</f>
+      <c r="Y157" s="23">
+        <f t="shared" si="12"/>
         <v>1.1469999999999838</v>
       </c>
       <c r="Z157" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y158" s="32">
-        <f>Y157+$X$10</f>
+      <c r="Y158" s="23">
+        <f t="shared" si="12"/>
         <v>1.1479999999999837</v>
       </c>
       <c r="Z158" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y159" s="32">
-        <f>Y158+$X$10</f>
+      <c r="Y159" s="23">
+        <f t="shared" si="12"/>
         <v>1.1489999999999836</v>
       </c>
       <c r="Z159" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y160" s="32">
-        <f>Y159+$X$10</f>
+      <c r="Y160" s="23">
+        <f t="shared" si="12"/>
         <v>1.1499999999999835</v>
       </c>
       <c r="Z160" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y161" s="32">
-        <f>Y160+$X$10</f>
+      <c r="Y161" s="23">
+        <f t="shared" si="12"/>
         <v>1.1509999999999834</v>
       </c>
       <c r="Z161" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y162" s="32">
-        <f>Y161+$X$10</f>
+      <c r="Y162" s="23">
+        <f t="shared" si="12"/>
         <v>1.1519999999999833</v>
       </c>
       <c r="Z162" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y163" s="32">
-        <f>Y162+$X$10</f>
+      <c r="Y163" s="23">
+        <f t="shared" si="12"/>
         <v>1.1529999999999831</v>
       </c>
       <c r="Z163" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y164" s="32">
-        <f>Y163+$X$10</f>
+      <c r="Y164" s="23">
+        <f t="shared" si="12"/>
         <v>1.153999999999983</v>
       </c>
       <c r="Z164" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y165" s="32">
-        <f>Y164+$X$10</f>
+      <c r="Y165" s="23">
+        <f t="shared" si="12"/>
         <v>1.1549999999999829</v>
       </c>
       <c r="Z165" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y166" s="32">
-        <f>Y165+$X$10</f>
+      <c r="Y166" s="23">
+        <f t="shared" si="12"/>
         <v>1.1559999999999828</v>
       </c>
       <c r="Z166" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y167" s="32">
-        <f>Y166+$X$10</f>
+      <c r="Y167" s="23">
+        <f t="shared" si="12"/>
         <v>1.1569999999999827</v>
       </c>
       <c r="Z167" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y168" s="32">
-        <f>Y167+$X$10</f>
+      <c r="Y168" s="23">
+        <f t="shared" si="12"/>
         <v>1.1579999999999826</v>
       </c>
       <c r="Z168" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y169" s="32">
-        <f>Y168+$X$10</f>
+      <c r="Y169" s="23">
+        <f t="shared" si="12"/>
         <v>1.1589999999999825</v>
       </c>
       <c r="Z169" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y170" s="32">
-        <f>Y169+$X$10</f>
+      <c r="Y170" s="23">
+        <f t="shared" si="12"/>
         <v>1.1599999999999824</v>
       </c>
       <c r="Z170" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y171" s="32">
-        <f>Y170+$X$10</f>
+      <c r="Y171" s="23">
+        <f t="shared" si="12"/>
         <v>1.1609999999999823</v>
       </c>
       <c r="Z171" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y172" s="32">
-        <f>Y171+$X$10</f>
+      <c r="Y172" s="23">
+        <f t="shared" si="12"/>
         <v>1.1619999999999822</v>
       </c>
       <c r="Z172" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y173" s="32">
-        <f>Y172+$X$10</f>
+      <c r="Y173" s="23">
+        <f t="shared" si="12"/>
         <v>1.162999999999982</v>
       </c>
       <c r="Z173" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y174" s="32">
-        <f>Y173+$X$10</f>
+      <c r="Y174" s="23">
+        <f t="shared" si="12"/>
         <v>1.1639999999999819</v>
       </c>
       <c r="Z174" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y175" s="32">
-        <f>Y174+$X$10</f>
+      <c r="Y175" s="23">
+        <f t="shared" si="12"/>
         <v>1.1649999999999818</v>
       </c>
       <c r="Z175" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y176" s="32">
-        <f>Y175+$X$10</f>
+      <c r="Y176" s="23">
+        <f t="shared" si="12"/>
         <v>1.1659999999999817</v>
       </c>
       <c r="Z176" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y177" s="32">
-        <f>Y176+$X$10</f>
+      <c r="Y177" s="23">
+        <f t="shared" si="12"/>
         <v>1.1669999999999816</v>
       </c>
       <c r="Z177" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y178" s="32">
-        <f>Y177+$X$10</f>
+      <c r="Y178" s="23">
+        <f t="shared" si="12"/>
         <v>1.1679999999999815</v>
       </c>
       <c r="Z178" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y179" s="32">
-        <f>Y178+$X$10</f>
+      <c r="Y179" s="23">
+        <f t="shared" si="12"/>
         <v>1.1689999999999814</v>
       </c>
       <c r="Z179" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y180" s="32">
-        <f>Y179+$X$10</f>
+      <c r="Y180" s="23">
+        <f t="shared" si="12"/>
         <v>1.1699999999999813</v>
       </c>
       <c r="Z180" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y181" s="32">
-        <f>Y180+$X$10</f>
+      <c r="Y181" s="23">
+        <f t="shared" si="12"/>
         <v>1.1709999999999812</v>
       </c>
       <c r="Z181" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y182" s="32">
-        <f>Y181+$X$10</f>
+      <c r="Y182" s="23">
+        <f t="shared" si="12"/>
         <v>1.1719999999999811</v>
       </c>
       <c r="Z182" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y183" s="32">
-        <f>Y182+$X$10</f>
+      <c r="Y183" s="23">
+        <f t="shared" si="12"/>
         <v>1.1729999999999809</v>
       </c>
       <c r="Z183" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y184" s="32">
-        <f>Y183+$X$10</f>
+      <c r="Y184" s="23">
+        <f t="shared" si="12"/>
         <v>1.1739999999999808</v>
       </c>
       <c r="Z184" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y185" s="32">
-        <f>Y184+$X$10</f>
+      <c r="Y185" s="23">
+        <f t="shared" si="12"/>
         <v>1.1749999999999807</v>
       </c>
       <c r="Z185" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y186" s="32">
-        <f>Y185+$X$10</f>
+      <c r="Y186" s="23">
+        <f t="shared" si="12"/>
         <v>1.1759999999999806</v>
       </c>
       <c r="Z186" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y187" s="32">
-        <f>Y186+$X$10</f>
+      <c r="Y187" s="23">
+        <f t="shared" si="12"/>
         <v>1.1769999999999805</v>
       </c>
       <c r="Z187" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y188" s="32">
-        <f>Y187+$X$10</f>
+      <c r="Y188" s="23">
+        <f t="shared" si="12"/>
         <v>1.1779999999999804</v>
       </c>
       <c r="Z188" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y189" s="32">
-        <f>Y188+$X$10</f>
+      <c r="Y189" s="23">
+        <f t="shared" si="12"/>
         <v>1.1789999999999803</v>
       </c>
       <c r="Z189" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y190" s="32">
-        <f>Y189+$X$10</f>
+      <c r="Y190" s="23">
+        <f t="shared" si="12"/>
         <v>1.1799999999999802</v>
       </c>
       <c r="Z190" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y191" s="32">
-        <f>Y190+$X$10</f>
+      <c r="Y191" s="23">
+        <f t="shared" si="12"/>
         <v>1.1809999999999801</v>
       </c>
       <c r="Z191" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y192" s="32">
-        <f>Y191+$X$10</f>
+      <c r="Y192" s="23">
+        <f t="shared" si="12"/>
         <v>1.18199999999998</v>
       </c>
       <c r="Z192" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y193" s="32">
-        <f>Y192+$X$10</f>
+      <c r="Y193" s="23">
+        <f t="shared" si="12"/>
         <v>1.1829999999999798</v>
       </c>
       <c r="Z193" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y194" s="32">
-        <f>Y193+$X$10</f>
+      <c r="Y194" s="23">
+        <f t="shared" si="12"/>
         <v>1.1839999999999797</v>
       </c>
       <c r="Z194" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y195" s="32">
-        <f>Y194+$X$10</f>
+      <c r="Y195" s="23">
+        <f t="shared" si="12"/>
         <v>1.1849999999999796</v>
       </c>
       <c r="Z195" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y196" s="32">
-        <f>Y195+$X$10</f>
+      <c r="Y196" s="23">
+        <f t="shared" si="12"/>
         <v>1.1859999999999795</v>
       </c>
       <c r="Z196" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y197" s="32">
-        <f>Y196+$X$10</f>
+      <c r="Y197" s="23">
+        <f t="shared" si="12"/>
         <v>1.1869999999999794</v>
       </c>
       <c r="Z197" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y198" s="32">
-        <f>Y197+$X$10</f>
+      <c r="Y198" s="23">
+        <f t="shared" si="12"/>
         <v>1.1879999999999793</v>
       </c>
       <c r="Z198" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y199" s="32">
-        <f>Y198+$X$10</f>
+      <c r="Y199" s="23">
+        <f t="shared" si="12"/>
         <v>1.1889999999999792</v>
       </c>
       <c r="Z199" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y200" s="32">
-        <f>Y199+$X$10</f>
+      <c r="Y200" s="23">
+        <f t="shared" si="12"/>
         <v>1.1899999999999791</v>
       </c>
       <c r="Z200" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y201" s="32">
-        <f>Y200+$X$10</f>
+      <c r="Y201" s="23">
+        <f t="shared" si="12"/>
         <v>1.190999999999979</v>
       </c>
       <c r="Z201" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y202" s="32">
-        <f>Y201+$X$10</f>
+      <c r="Y202" s="23">
+        <f t="shared" si="12"/>
         <v>1.1919999999999789</v>
       </c>
       <c r="Z202" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y203" s="32">
-        <f>Y202+$X$10</f>
+      <c r="Y203" s="23">
+        <f t="shared" ref="Y203:Y250" si="14">Y202+$X$10</f>
         <v>1.1929999999999787</v>
       </c>
       <c r="Z203" s="7">
-        <f t="shared" ref="Z203:Z250" si="9">IF(AND(Y203&gt;=$F$3, Y203&lt;=$F$4), $F$2, 0)</f>
+        <f t="shared" ref="Z203:Z250" si="15">IF(AND(Y203&gt;=$F$3, Y203&lt;=$F$4), $F$2, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y204" s="32">
-        <f>Y203+$X$10</f>
+      <c r="Y204" s="23">
+        <f t="shared" si="14"/>
         <v>1.1939999999999786</v>
       </c>
       <c r="Z204" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y205" s="32">
-        <f>Y204+$X$10</f>
+      <c r="Y205" s="23">
+        <f t="shared" si="14"/>
         <v>1.1949999999999785</v>
       </c>
       <c r="Z205" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y206" s="32">
-        <f>Y205+$X$10</f>
+      <c r="Y206" s="23">
+        <f t="shared" si="14"/>
         <v>1.1959999999999784</v>
       </c>
       <c r="Z206" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y207" s="32">
-        <f>Y206+$X$10</f>
+      <c r="Y207" s="23">
+        <f t="shared" si="14"/>
         <v>1.1969999999999783</v>
       </c>
       <c r="Z207" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y208" s="32">
-        <f>Y207+$X$10</f>
+      <c r="Y208" s="23">
+        <f t="shared" si="14"/>
         <v>1.1979999999999782</v>
       </c>
       <c r="Z208" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y209" s="32">
-        <f>Y208+$X$10</f>
+      <c r="Y209" s="23">
+        <f t="shared" si="14"/>
         <v>1.1989999999999781</v>
       </c>
       <c r="Z209" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y210" s="32">
-        <f>Y209+$X$10</f>
+      <c r="Y210" s="23">
+        <f t="shared" si="14"/>
         <v>1.199999999999978</v>
       </c>
       <c r="Z210" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y211" s="32">
-        <f>Y210+$X$10</f>
+      <c r="Y211" s="23">
+        <f t="shared" si="14"/>
         <v>1.2009999999999779</v>
       </c>
       <c r="Z211" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y212" s="32">
-        <f>Y211+$X$10</f>
+      <c r="Y212" s="23">
+        <f t="shared" si="14"/>
         <v>1.2019999999999778</v>
       </c>
       <c r="Z212" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y213" s="32">
-        <f>Y212+$X$10</f>
+      <c r="Y213" s="23">
+        <f t="shared" si="14"/>
         <v>1.2029999999999776</v>
       </c>
       <c r="Z213" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y214" s="32">
-        <f>Y213+$X$10</f>
+      <c r="Y214" s="23">
+        <f t="shared" si="14"/>
         <v>1.2039999999999775</v>
       </c>
       <c r="Z214" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y215" s="32">
-        <f>Y214+$X$10</f>
+      <c r="Y215" s="23">
+        <f t="shared" si="14"/>
         <v>1.2049999999999774</v>
       </c>
       <c r="Z215" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y216" s="32">
-        <f>Y215+$X$10</f>
+      <c r="Y216" s="23">
+        <f t="shared" si="14"/>
         <v>1.2059999999999773</v>
       </c>
       <c r="Z216" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y217" s="32">
-        <f>Y216+$X$10</f>
+      <c r="Y217" s="23">
+        <f t="shared" si="14"/>
         <v>1.2069999999999772</v>
       </c>
       <c r="Z217" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y218" s="32">
-        <f>Y217+$X$10</f>
+      <c r="Y218" s="23">
+        <f t="shared" si="14"/>
         <v>1.2079999999999771</v>
       </c>
       <c r="Z218" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y219" s="32">
-        <f>Y218+$X$10</f>
+      <c r="Y219" s="23">
+        <f t="shared" si="14"/>
         <v>1.208999999999977</v>
       </c>
       <c r="Z219" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y220" s="32">
-        <f>Y219+$X$10</f>
+      <c r="Y220" s="23">
+        <f t="shared" si="14"/>
         <v>1.2099999999999769</v>
       </c>
       <c r="Z220" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y221" s="32">
-        <f>Y220+$X$10</f>
+      <c r="Y221" s="23">
+        <f t="shared" si="14"/>
         <v>1.2109999999999768</v>
       </c>
       <c r="Z221" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y222" s="32">
-        <f>Y221+$X$10</f>
+      <c r="Y222" s="23">
+        <f t="shared" si="14"/>
         <v>1.2119999999999767</v>
       </c>
       <c r="Z222" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y223" s="32">
-        <f>Y222+$X$10</f>
+      <c r="Y223" s="23">
+        <f t="shared" si="14"/>
         <v>1.2129999999999765</v>
       </c>
       <c r="Z223" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y224" s="32">
-        <f>Y223+$X$10</f>
+      <c r="Y224" s="23">
+        <f t="shared" si="14"/>
         <v>1.2139999999999764</v>
       </c>
       <c r="Z224" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y225" s="32">
-        <f>Y224+$X$10</f>
+      <c r="Y225" s="23">
+        <f t="shared" si="14"/>
         <v>1.2149999999999763</v>
       </c>
       <c r="Z225" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y226" s="32">
-        <f>Y225+$X$10</f>
+      <c r="Y226" s="23">
+        <f t="shared" si="14"/>
         <v>1.2159999999999762</v>
       </c>
       <c r="Z226" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y227" s="32">
-        <f>Y226+$X$10</f>
+      <c r="Y227" s="23">
+        <f t="shared" si="14"/>
         <v>1.2169999999999761</v>
       </c>
       <c r="Z227" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y228" s="32">
-        <f>Y227+$X$10</f>
+      <c r="Y228" s="23">
+        <f t="shared" si="14"/>
         <v>1.217999999999976</v>
       </c>
       <c r="Z228" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y229" s="32">
-        <f>Y228+$X$10</f>
+      <c r="Y229" s="23">
+        <f t="shared" si="14"/>
         <v>1.2189999999999759</v>
       </c>
       <c r="Z229" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y230" s="32">
-        <f>Y229+$X$10</f>
+      <c r="Y230" s="23">
+        <f t="shared" si="14"/>
         <v>1.2199999999999758</v>
       </c>
       <c r="Z230" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y231" s="32">
-        <f>Y230+$X$10</f>
+      <c r="Y231" s="23">
+        <f t="shared" si="14"/>
         <v>1.2209999999999757</v>
       </c>
       <c r="Z231" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y232" s="32">
-        <f>Y231+$X$10</f>
+      <c r="Y232" s="23">
+        <f t="shared" si="14"/>
         <v>1.2219999999999756</v>
       </c>
       <c r="Z232" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y233" s="32">
-        <f>Y232+$X$10</f>
+      <c r="Y233" s="23">
+        <f t="shared" si="14"/>
         <v>1.2229999999999754</v>
       </c>
       <c r="Z233" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y234" s="32">
-        <f>Y233+$X$10</f>
+      <c r="Y234" s="23">
+        <f t="shared" si="14"/>
         <v>1.2239999999999753</v>
       </c>
       <c r="Z234" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y235" s="32">
-        <f>Y234+$X$10</f>
+      <c r="Y235" s="23">
+        <f t="shared" si="14"/>
         <v>1.2249999999999752</v>
       </c>
       <c r="Z235" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y236" s="32">
-        <f>Y235+$X$10</f>
+      <c r="Y236" s="23">
+        <f t="shared" si="14"/>
         <v>1.2259999999999751</v>
       </c>
       <c r="Z236" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y237" s="32">
-        <f>Y236+$X$10</f>
+      <c r="Y237" s="23">
+        <f t="shared" si="14"/>
         <v>1.226999999999975</v>
       </c>
       <c r="Z237" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y238" s="32">
-        <f>Y237+$X$10</f>
+      <c r="Y238" s="23">
+        <f t="shared" si="14"/>
         <v>1.2279999999999749</v>
       </c>
       <c r="Z238" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y239" s="32">
-        <f>Y238+$X$10</f>
+      <c r="Y239" s="23">
+        <f t="shared" si="14"/>
         <v>1.2289999999999748</v>
       </c>
       <c r="Z239" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y240" s="32">
-        <f>Y239+$X$10</f>
+      <c r="Y240" s="23">
+        <f t="shared" si="14"/>
         <v>1.2299999999999747</v>
       </c>
       <c r="Z240" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y241" s="32">
-        <f>Y240+$X$10</f>
+      <c r="Y241" s="23">
+        <f t="shared" si="14"/>
         <v>1.2309999999999746</v>
       </c>
       <c r="Z241" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y242" s="32">
-        <f>Y241+$X$10</f>
+      <c r="Y242" s="23">
+        <f t="shared" si="14"/>
         <v>1.2319999999999744</v>
       </c>
       <c r="Z242" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y243" s="32">
-        <f>Y242+$X$10</f>
+      <c r="Y243" s="23">
+        <f t="shared" si="14"/>
         <v>1.2329999999999743</v>
       </c>
       <c r="Z243" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y244" s="32">
-        <f>Y243+$X$10</f>
+      <c r="Y244" s="23">
+        <f t="shared" si="14"/>
         <v>1.2339999999999742</v>
       </c>
       <c r="Z244" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y245" s="32">
-        <f>Y244+$X$10</f>
+      <c r="Y245" s="23">
+        <f t="shared" si="14"/>
         <v>1.2349999999999741</v>
       </c>
       <c r="Z245" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y246" s="32">
-        <f>Y245+$X$10</f>
+      <c r="Y246" s="23">
+        <f t="shared" si="14"/>
         <v>1.235999999999974</v>
       </c>
       <c r="Z246" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y247" s="32">
-        <f>Y246+$X$10</f>
+      <c r="Y247" s="23">
+        <f t="shared" si="14"/>
         <v>1.2369999999999739</v>
       </c>
       <c r="Z247" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y248" s="32">
-        <f>Y247+$X$10</f>
+      <c r="Y248" s="23">
+        <f t="shared" si="14"/>
         <v>1.2379999999999738</v>
       </c>
       <c r="Z248" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y249" s="32">
-        <f>Y248+$X$10</f>
+      <c r="Y249" s="23">
+        <f t="shared" si="14"/>
         <v>1.2389999999999737</v>
       </c>
       <c r="Z249" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" spans="25:26" x14ac:dyDescent="0.35">
-      <c r="Y250" s="32">
-        <f>Y249+$X$10</f>
+      <c r="Y250" s="23">
+        <f t="shared" si="14"/>
         <v>1.2399999999999736</v>
       </c>
       <c r="Z250" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB276" s="32"/>
+      <c r="AB276" s="23"/>
     </row>
     <row r="277" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB277" s="32"/>
+      <c r="AB277" s="23"/>
     </row>
     <row r="278" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB278" s="32"/>
+      <c r="AB278" s="23"/>
     </row>
     <row r="279" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB279" s="32"/>
+      <c r="AB279" s="23"/>
     </row>
     <row r="280" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB280" s="32"/>
+      <c r="AB280" s="23"/>
     </row>
     <row r="281" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB281" s="32"/>
+      <c r="AB281" s="23"/>
     </row>
     <row r="282" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB282" s="32"/>
+      <c r="AB282" s="23"/>
     </row>
     <row r="283" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB283" s="32"/>
+      <c r="AB283" s="23"/>
     </row>
     <row r="284" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB284" s="32"/>
+      <c r="AB284" s="23"/>
     </row>
     <row r="285" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB285" s="32"/>
+      <c r="AB285" s="23"/>
     </row>
     <row r="286" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB286" s="32"/>
+      <c r="AB286" s="23"/>
     </row>
     <row r="287" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB287" s="32"/>
+      <c r="AB287" s="23"/>
     </row>
     <row r="288" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB288" s="32"/>
+      <c r="AB288" s="23"/>
     </row>
     <row r="289" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB289" s="32"/>
+      <c r="AB289" s="23"/>
     </row>
     <row r="290" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB290" s="32"/>
+      <c r="AB290" s="23"/>
     </row>
     <row r="291" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB291" s="32"/>
+      <c r="AB291" s="23"/>
     </row>
     <row r="292" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB292" s="32"/>
+      <c r="AB292" s="23"/>
     </row>
     <row r="293" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB293" s="32"/>
+      <c r="AB293" s="23"/>
     </row>
     <row r="294" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB294" s="32"/>
+      <c r="AB294" s="23"/>
     </row>
     <row r="295" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB295" s="32"/>
+      <c r="AB295" s="23"/>
     </row>
     <row r="296" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB296" s="32"/>
+      <c r="AB296" s="23"/>
     </row>
     <row r="297" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB297" s="32"/>
+      <c r="AB297" s="23"/>
     </row>
     <row r="298" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB298" s="32"/>
+      <c r="AB298" s="23"/>
     </row>
     <row r="299" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB299" s="32"/>
+      <c r="AB299" s="23"/>
     </row>
     <row r="300" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB300" s="32"/>
+      <c r="AB300" s="23"/>
     </row>
     <row r="301" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB301" s="32"/>
+      <c r="AB301" s="23"/>
     </row>
     <row r="302" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB302" s="32"/>
+      <c r="AB302" s="23"/>
     </row>
     <row r="303" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB303" s="32"/>
+      <c r="AB303" s="23"/>
     </row>
     <row r="304" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB304" s="32"/>
+      <c r="AB304" s="23"/>
     </row>
     <row r="305" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB305" s="32"/>
+      <c r="AB305" s="23"/>
     </row>
     <row r="306" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB306" s="32"/>
+      <c r="AB306" s="23"/>
     </row>
     <row r="307" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB307" s="32"/>
+      <c r="AB307" s="23"/>
     </row>
     <row r="308" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB308" s="32"/>
+      <c r="AB308" s="23"/>
     </row>
     <row r="309" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB309" s="32"/>
+      <c r="AB309" s="23"/>
     </row>
     <row r="310" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB310" s="32"/>
+      <c r="AB310" s="23"/>
     </row>
     <row r="311" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB311" s="32"/>
+      <c r="AB311" s="23"/>
     </row>
     <row r="312" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB312" s="32"/>
+      <c r="AB312" s="23"/>
     </row>
     <row r="313" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB313" s="32"/>
+      <c r="AB313" s="23"/>
     </row>
     <row r="314" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB314" s="32"/>
+      <c r="AB314" s="23"/>
     </row>
     <row r="315" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB315" s="32"/>
+      <c r="AB315" s="23"/>
     </row>
     <row r="316" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB316" s="32"/>
+      <c r="AB316" s="23"/>
     </row>
     <row r="317" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB317" s="32"/>
+      <c r="AB317" s="23"/>
     </row>
     <row r="318" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB318" s="32"/>
+      <c r="AB318" s="23"/>
     </row>
     <row r="319" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB319" s="32"/>
+      <c r="AB319" s="23"/>
     </row>
     <row r="320" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB320" s="32"/>
+      <c r="AB320" s="23"/>
     </row>
     <row r="321" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB321" s="32"/>
+      <c r="AB321" s="23"/>
     </row>
     <row r="322" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB322" s="32"/>
+      <c r="AB322" s="23"/>
     </row>
     <row r="323" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB323" s="32"/>
+      <c r="AB323" s="23"/>
     </row>
     <row r="324" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB324" s="32"/>
+      <c r="AB324" s="23"/>
     </row>
     <row r="325" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB325" s="32"/>
+      <c r="AB325" s="23"/>
     </row>
     <row r="326" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB326" s="32"/>
+      <c r="AB326" s="23"/>
     </row>
     <row r="327" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB327" s="32"/>
+      <c r="AB327" s="23"/>
     </row>
     <row r="328" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB328" s="32"/>
+      <c r="AB328" s="23"/>
     </row>
     <row r="329" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB329" s="32"/>
+      <c r="AB329" s="23"/>
     </row>
     <row r="330" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB330" s="32"/>
+      <c r="AB330" s="23"/>
     </row>
     <row r="331" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB331" s="32"/>
+      <c r="AB331" s="23"/>
     </row>
     <row r="332" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB332" s="32"/>
+      <c r="AB332" s="23"/>
     </row>
     <row r="333" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB333" s="32"/>
+      <c r="AB333" s="23"/>
     </row>
     <row r="334" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB334" s="32"/>
+      <c r="AB334" s="23"/>
     </row>
     <row r="335" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB335" s="32"/>
+      <c r="AB335" s="23"/>
     </row>
     <row r="336" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB336" s="32"/>
+      <c r="AB336" s="23"/>
     </row>
     <row r="337" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB337" s="32"/>
+      <c r="AB337" s="23"/>
     </row>
     <row r="338" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB338" s="32"/>
+      <c r="AB338" s="23"/>
     </row>
     <row r="339" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB339" s="32"/>
+      <c r="AB339" s="23"/>
     </row>
     <row r="340" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB340" s="32"/>
+      <c r="AB340" s="23"/>
     </row>
     <row r="341" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB341" s="32"/>
+      <c r="AB341" s="23"/>
     </row>
     <row r="342" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB342" s="32"/>
+      <c r="AB342" s="23"/>
     </row>
     <row r="343" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB343" s="32"/>
+      <c r="AB343" s="23"/>
     </row>
     <row r="344" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB344" s="32"/>
+      <c r="AB344" s="23"/>
     </row>
     <row r="345" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB345" s="32"/>
+      <c r="AB345" s="23"/>
     </row>
     <row r="346" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB346" s="32"/>
+      <c r="AB346" s="23"/>
     </row>
     <row r="347" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB347" s="32"/>
+      <c r="AB347" s="23"/>
     </row>
     <row r="348" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB348" s="32"/>
+      <c r="AB348" s="23"/>
     </row>
     <row r="349" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB349" s="32"/>
+      <c r="AB349" s="23"/>
     </row>
     <row r="350" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB350" s="32"/>
+      <c r="AB350" s="23"/>
     </row>
     <row r="351" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB351" s="32"/>
+      <c r="AB351" s="23"/>
     </row>
     <row r="352" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB352" s="32"/>
+      <c r="AB352" s="23"/>
     </row>
     <row r="353" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB353" s="32"/>
+      <c r="AB353" s="23"/>
     </row>
     <row r="354" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB354" s="32"/>
+      <c r="AB354" s="23"/>
     </row>
     <row r="355" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB355" s="32"/>
+      <c r="AB355" s="23"/>
     </row>
     <row r="356" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB356" s="32"/>
+      <c r="AB356" s="23"/>
     </row>
     <row r="357" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB357" s="32"/>
+      <c r="AB357" s="23"/>
     </row>
     <row r="358" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB358" s="32"/>
+      <c r="AB358" s="23"/>
     </row>
     <row r="359" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB359" s="32"/>
+      <c r="AB359" s="23"/>
     </row>
     <row r="360" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB360" s="32"/>
+      <c r="AB360" s="23"/>
     </row>
     <row r="361" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB361" s="32"/>
+      <c r="AB361" s="23"/>
     </row>
     <row r="362" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB362" s="32"/>
+      <c r="AB362" s="23"/>
     </row>
     <row r="363" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB363" s="32"/>
+      <c r="AB363" s="23"/>
     </row>
     <row r="364" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB364" s="32"/>
+      <c r="AB364" s="23"/>
     </row>
     <row r="365" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB365" s="32"/>
+      <c r="AB365" s="23"/>
     </row>
     <row r="366" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB366" s="32"/>
+      <c r="AB366" s="23"/>
     </row>
     <row r="367" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB367" s="32"/>
+      <c r="AB367" s="23"/>
     </row>
     <row r="368" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB368" s="32"/>
+      <c r="AB368" s="23"/>
     </row>
     <row r="369" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB369" s="32"/>
+      <c r="AB369" s="23"/>
     </row>
     <row r="370" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB370" s="32"/>
+      <c r="AB370" s="23"/>
     </row>
     <row r="371" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB371" s="32"/>
+      <c r="AB371" s="23"/>
     </row>
     <row r="372" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB372" s="32"/>
+      <c r="AB372" s="23"/>
     </row>
     <row r="373" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB373" s="32"/>
+      <c r="AB373" s="23"/>
     </row>
     <row r="374" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB374" s="32"/>
+      <c r="AB374" s="23"/>
     </row>
     <row r="375" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB375" s="32"/>
+      <c r="AB375" s="23"/>
     </row>
     <row r="376" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB376" s="32"/>
+      <c r="AB376" s="23"/>
     </row>
     <row r="377" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB377" s="32"/>
+      <c r="AB377" s="23"/>
     </row>
     <row r="378" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB378" s="32"/>
+      <c r="AB378" s="23"/>
     </row>
     <row r="379" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB379" s="32"/>
+      <c r="AB379" s="23"/>
     </row>
     <row r="380" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB380" s="32"/>
+      <c r="AB380" s="23"/>
     </row>
     <row r="381" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB381" s="32"/>
+      <c r="AB381" s="23"/>
     </row>
     <row r="382" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB382" s="32"/>
+      <c r="AB382" s="23"/>
     </row>
     <row r="383" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB383" s="32"/>
+      <c r="AB383" s="23"/>
     </row>
     <row r="384" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB384" s="32"/>
+      <c r="AB384" s="23"/>
     </row>
     <row r="385" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB385" s="32"/>
+      <c r="AB385" s="23"/>
     </row>
     <row r="386" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB386" s="32"/>
+      <c r="AB386" s="23"/>
     </row>
     <row r="387" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB387" s="32"/>
+      <c r="AB387" s="23"/>
     </row>
     <row r="388" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB388" s="32"/>
+      <c r="AB388" s="23"/>
     </row>
     <row r="389" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB389" s="32"/>
+      <c r="AB389" s="23"/>
     </row>
     <row r="390" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB390" s="32"/>
+      <c r="AB390" s="23"/>
     </row>
     <row r="391" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB391" s="32"/>
+      <c r="AB391" s="23"/>
     </row>
     <row r="392" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB392" s="32"/>
+      <c r="AB392" s="23"/>
     </row>
     <row r="393" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB393" s="32"/>
+      <c r="AB393" s="23"/>
     </row>
     <row r="394" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB394" s="32"/>
+      <c r="AB394" s="23"/>
     </row>
     <row r="395" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB395" s="32"/>
+      <c r="AB395" s="23"/>
     </row>
     <row r="396" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB396" s="32"/>
+      <c r="AB396" s="23"/>
     </row>
     <row r="397" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB397" s="32"/>
+      <c r="AB397" s="23"/>
     </row>
     <row r="398" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB398" s="32"/>
+      <c r="AB398" s="23"/>
     </row>
     <row r="399" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB399" s="32"/>
+      <c r="AB399" s="23"/>
     </row>
     <row r="400" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB400" s="32"/>
+      <c r="AB400" s="23"/>
     </row>
     <row r="401" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB401" s="32"/>
+      <c r="AB401" s="23"/>
     </row>
     <row r="402" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB402" s="32"/>
+      <c r="AB402" s="23"/>
     </row>
     <row r="403" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB403" s="32"/>
+      <c r="AB403" s="23"/>
     </row>
     <row r="404" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB404" s="32"/>
+      <c r="AB404" s="23"/>
     </row>
     <row r="405" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB405" s="32"/>
+      <c r="AB405" s="23"/>
     </row>
     <row r="406" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB406" s="32"/>
+      <c r="AB406" s="23"/>
     </row>
     <row r="407" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB407" s="32"/>
+      <c r="AB407" s="23"/>
     </row>
     <row r="408" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB408" s="32"/>
+      <c r="AB408" s="23"/>
     </row>
     <row r="409" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB409" s="32"/>
+      <c r="AB409" s="23"/>
     </row>
     <row r="410" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB410" s="32"/>
+      <c r="AB410" s="23"/>
     </row>
     <row r="411" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB411" s="32"/>
+      <c r="AB411" s="23"/>
     </row>
     <row r="412" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB412" s="32"/>
+      <c r="AB412" s="23"/>
     </row>
     <row r="413" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB413" s="32"/>
+      <c r="AB413" s="23"/>
     </row>
     <row r="414" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB414" s="32"/>
+      <c r="AB414" s="23"/>
     </row>
     <row r="415" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB415" s="32"/>
+      <c r="AB415" s="23"/>
     </row>
     <row r="416" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB416" s="32"/>
+      <c r="AB416" s="23"/>
     </row>
     <row r="417" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB417" s="32"/>
+      <c r="AB417" s="23"/>
     </row>
     <row r="418" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB418" s="32"/>
+      <c r="AB418" s="23"/>
     </row>
     <row r="419" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB419" s="32"/>
+      <c r="AB419" s="23"/>
     </row>
     <row r="420" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB420" s="32"/>
+      <c r="AB420" s="23"/>
     </row>
     <row r="421" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB421" s="32"/>
+      <c r="AB421" s="23"/>
     </row>
     <row r="422" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB422" s="32"/>
+      <c r="AB422" s="23"/>
     </row>
     <row r="423" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB423" s="32"/>
+      <c r="AB423" s="23"/>
     </row>
     <row r="424" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB424" s="32"/>
+      <c r="AB424" s="23"/>
     </row>
     <row r="425" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB425" s="32"/>
+      <c r="AB425" s="23"/>
     </row>
     <row r="426" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB426" s="32"/>
+      <c r="AB426" s="23"/>
     </row>
     <row r="427" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB427" s="32"/>
+      <c r="AB427" s="23"/>
     </row>
     <row r="428" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB428" s="32"/>
+      <c r="AB428" s="23"/>
     </row>
     <row r="429" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB429" s="32"/>
+      <c r="AB429" s="23"/>
     </row>
     <row r="430" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB430" s="32"/>
+      <c r="AB430" s="23"/>
     </row>
     <row r="431" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB431" s="32"/>
+      <c r="AB431" s="23"/>
     </row>
     <row r="432" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB432" s="32"/>
+      <c r="AB432" s="23"/>
     </row>
     <row r="433" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB433" s="32"/>
+      <c r="AB433" s="23"/>
     </row>
     <row r="434" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB434" s="32"/>
+      <c r="AB434" s="23"/>
     </row>
     <row r="435" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB435" s="32"/>
+      <c r="AB435" s="23"/>
     </row>
     <row r="436" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB436" s="32"/>
+      <c r="AB436" s="23"/>
     </row>
     <row r="437" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB437" s="32"/>
+      <c r="AB437" s="23"/>
     </row>
     <row r="438" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB438" s="32"/>
+      <c r="AB438" s="23"/>
     </row>
     <row r="439" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB439" s="32"/>
+      <c r="AB439" s="23"/>
     </row>
     <row r="440" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB440" s="32"/>
+      <c r="AB440" s="23"/>
     </row>
     <row r="441" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB441" s="32"/>
+      <c r="AB441" s="23"/>
     </row>
     <row r="442" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB442" s="32"/>
+      <c r="AB442" s="23"/>
     </row>
     <row r="443" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB443" s="32"/>
+      <c r="AB443" s="23"/>
     </row>
     <row r="444" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB444" s="32"/>
+      <c r="AB444" s="23"/>
     </row>
     <row r="445" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB445" s="32"/>
+      <c r="AB445" s="23"/>
     </row>
     <row r="446" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB446" s="32"/>
+      <c r="AB446" s="23"/>
     </row>
     <row r="447" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB447" s="32"/>
+      <c r="AB447" s="23"/>
     </row>
     <row r="448" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB448" s="32"/>
+      <c r="AB448" s="23"/>
     </row>
     <row r="449" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB449" s="32"/>
+      <c r="AB449" s="23"/>
     </row>
     <row r="450" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB450" s="32"/>
+      <c r="AB450" s="23"/>
     </row>
     <row r="451" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB451" s="32"/>
+      <c r="AB451" s="23"/>
     </row>
     <row r="452" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB452" s="32"/>
+      <c r="AB452" s="23"/>
     </row>
     <row r="453" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB453" s="32"/>
+      <c r="AB453" s="23"/>
     </row>
     <row r="454" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB454" s="32"/>
+      <c r="AB454" s="23"/>
     </row>
     <row r="455" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB455" s="32"/>
+      <c r="AB455" s="23"/>
     </row>
     <row r="456" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB456" s="32"/>
+      <c r="AB456" s="23"/>
     </row>
     <row r="457" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB457" s="32"/>
+      <c r="AB457" s="23"/>
     </row>
     <row r="458" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB458" s="32"/>
+      <c r="AB458" s="23"/>
     </row>
     <row r="459" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB459" s="32"/>
+      <c r="AB459" s="23"/>
     </row>
     <row r="460" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB460" s="32"/>
+      <c r="AB460" s="23"/>
     </row>
     <row r="461" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB461" s="32"/>
+      <c r="AB461" s="23"/>
     </row>
     <row r="462" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB462" s="32"/>
+      <c r="AB462" s="23"/>
     </row>
     <row r="463" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB463" s="32"/>
+      <c r="AB463" s="23"/>
     </row>
     <row r="464" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB464" s="32"/>
+      <c r="AB464" s="23"/>
     </row>
     <row r="465" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB465" s="32"/>
+      <c r="AB465" s="23"/>
     </row>
     <row r="466" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB466" s="32"/>
+      <c r="AB466" s="23"/>
     </row>
     <row r="467" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB467" s="32"/>
+      <c r="AB467" s="23"/>
     </row>
     <row r="468" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB468" s="32"/>
+      <c r="AB468" s="23"/>
     </row>
     <row r="469" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB469" s="32"/>
+      <c r="AB469" s="23"/>
     </row>
     <row r="470" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB470" s="32"/>
+      <c r="AB470" s="23"/>
     </row>
     <row r="471" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB471" s="32"/>
+      <c r="AB471" s="23"/>
     </row>
     <row r="472" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB472" s="32"/>
+      <c r="AB472" s="23"/>
     </row>
     <row r="473" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB473" s="32"/>
+      <c r="AB473" s="23"/>
     </row>
     <row r="474" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB474" s="32"/>
+      <c r="AB474" s="23"/>
     </row>
     <row r="475" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB475" s="32"/>
+      <c r="AB475" s="23"/>
     </row>
     <row r="476" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB476" s="32"/>
+      <c r="AB476" s="23"/>
     </row>
     <row r="477" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB477" s="32"/>
+      <c r="AB477" s="23"/>
     </row>
     <row r="478" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB478" s="32"/>
+      <c r="AB478" s="23"/>
     </row>
     <row r="479" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB479" s="32"/>
+      <c r="AB479" s="23"/>
     </row>
     <row r="480" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB480" s="32"/>
+      <c r="AB480" s="23"/>
     </row>
     <row r="481" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB481" s="32"/>
+      <c r="AB481" s="23"/>
     </row>
     <row r="482" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB482" s="32"/>
+      <c r="AB482" s="23"/>
     </row>
     <row r="483" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB483" s="32"/>
+      <c r="AB483" s="23"/>
     </row>
     <row r="484" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB484" s="32"/>
+      <c r="AB484" s="23"/>
     </row>
     <row r="485" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB485" s="32"/>
+      <c r="AB485" s="23"/>
     </row>
     <row r="486" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB486" s="32"/>
+      <c r="AB486" s="23"/>
     </row>
     <row r="487" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB487" s="32"/>
+      <c r="AB487" s="23"/>
     </row>
     <row r="488" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB488" s="32"/>
+      <c r="AB488" s="23"/>
     </row>
     <row r="489" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB489" s="32"/>
+      <c r="AB489" s="23"/>
     </row>
     <row r="490" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB490" s="32"/>
+      <c r="AB490" s="23"/>
     </row>
     <row r="491" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB491" s="32"/>
+      <c r="AB491" s="23"/>
     </row>
     <row r="492" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB492" s="32"/>
+      <c r="AB492" s="23"/>
     </row>
     <row r="493" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB493" s="32"/>
+      <c r="AB493" s="23"/>
     </row>
     <row r="494" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB494" s="32"/>
+      <c r="AB494" s="23"/>
     </row>
     <row r="495" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB495" s="32"/>
+      <c r="AB495" s="23"/>
     </row>
     <row r="496" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB496" s="32"/>
+      <c r="AB496" s="23"/>
     </row>
     <row r="497" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB497" s="32"/>
+      <c r="AB497" s="23"/>
     </row>
     <row r="498" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB498" s="32"/>
+      <c r="AB498" s="23"/>
     </row>
     <row r="499" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB499" s="32"/>
+      <c r="AB499" s="23"/>
     </row>
     <row r="500" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB500" s="32"/>
+      <c r="AB500" s="23"/>
     </row>
     <row r="501" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB501" s="32"/>
+      <c r="AB501" s="23"/>
     </row>
     <row r="502" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB502" s="32"/>
+      <c r="AB502" s="23"/>
     </row>
     <row r="503" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB503" s="32"/>
+      <c r="AB503" s="23"/>
     </row>
     <row r="504" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB504" s="32"/>
+      <c r="AB504" s="23"/>
     </row>
     <row r="505" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB505" s="32"/>
+      <c r="AB505" s="23"/>
     </row>
     <row r="506" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB506" s="32"/>
+      <c r="AB506" s="23"/>
     </row>
     <row r="507" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB507" s="32"/>
+      <c r="AB507" s="23"/>
     </row>
     <row r="508" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB508" s="32"/>
+      <c r="AB508" s="23"/>
     </row>
     <row r="509" spans="28:28" x14ac:dyDescent="0.35">
-      <c r="AB509" s="32"/>
+      <c r="AB509" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="J104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:P104"/>
     <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="J75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:P75"/>
     <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
